--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2901519.074720745</v>
+        <v>2900751.039706712</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1390538.408178389</v>
+        <v>1390538.408178388</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8219933.520812102</v>
+        <v>8219933.520812101</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>5.765157819097949</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,56 +744,56 @@
         <v>7.293863480540836</v>
       </c>
       <c r="E3" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="U3" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>6.424434953660365</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,43 +835,43 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.424434953660366</v>
+        <v>6.424434953660365</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>7.293863480540836</v>
@@ -947,11 +947,11 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>6.424434953660366</v>
       </c>
     </row>
     <row r="6">
@@ -975,73 +975,73 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.424434953660365</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="S6" t="n">
-        <v>6.424434953660366</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.424434953660365</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="S7" t="n">
         <v>7.293863480540836</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>6.424434953660365</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.79021388715344</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>14.85476540383092</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="T8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.79021388715344</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,67 +1209,67 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.08407736769427</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13.08407736769428</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>13.08407736769428</v>
       </c>
-      <c r="F10" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="X10" t="n">
         <v>14.85476540383092</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.3503920806401</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.2387148438434</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>260.7520178445325</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>116.7204402654714</v>
       </c>
       <c r="I11" t="n">
-        <v>62.90034532759859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.702249726126</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.33294527187074</v>
       </c>
       <c r="U11" t="n">
-        <v>63.50371770959106</v>
+        <v>129.0703310864398</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.1672036117644</v>
       </c>
       <c r="W11" t="n">
-        <v>228.1640990897996</v>
+        <v>228.1640990897997</v>
       </c>
       <c r="X11" t="n">
-        <v>248.4955812204144</v>
+        <v>248.4955812204145</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.00610769958988</v>
+        <v>43.00610769958992</v>
       </c>
       <c r="C12" t="n">
-        <v>48.65956601664604</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>23.74640566389061</v>
+        <v>23.74640566389066</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>128.4863751737802</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7462257866671</v>
+        <v>13.38020787591222</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7874291657197</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.4507319079642</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2660903271862</v>
+        <v>74.90007241643129</v>
       </c>
       <c r="U12" t="n">
-        <v>224.1976862433638</v>
+        <v>102.2729364973427</v>
       </c>
       <c r="V12" t="n">
         <v>109.5427131289002</v>
       </c>
       <c r="W12" t="n">
-        <v>127.6233288392451</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.09561169772331</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.71767357992886</v>
+        <v>57.7176735799289</v>
       </c>
       <c r="C13" t="n">
-        <v>44.97053502044739</v>
+        <v>44.97053502044743</v>
       </c>
       <c r="D13" t="n">
-        <v>26.63954860376441</v>
+        <v>26.63954860376445</v>
       </c>
       <c r="E13" t="n">
-        <v>24.60860626244423</v>
+        <v>24.60860626244427</v>
       </c>
       <c r="F13" t="n">
-        <v>23.79300349904955</v>
+        <v>23.79300349904959</v>
       </c>
       <c r="G13" t="n">
-        <v>45.29135658749701</v>
+        <v>45.29135658749705</v>
       </c>
       <c r="H13" t="n">
-        <v>37.2034566949321</v>
+        <v>37.20345669493214</v>
       </c>
       <c r="I13" t="n">
-        <v>24.40920760864855</v>
+        <v>24.4092076086486</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58392448666078</v>
+        <v>40.58392448666082</v>
       </c>
       <c r="S13" t="n">
-        <v>95.94452481550246</v>
+        <v>95.9445248155025</v>
       </c>
       <c r="T13" t="n">
-        <v>104.9742591446402</v>
+        <v>104.9742591446403</v>
       </c>
       <c r="U13" t="n">
-        <v>163.6735862385716</v>
+        <v>163.6735862385717</v>
       </c>
       <c r="V13" t="n">
         <v>130.5703331561842</v>
@@ -1594,7 +1594,7 @@
         <v>103.7743420215543</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.38265595701327</v>
+        <v>96.38265595701331</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.3503920806401</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.6190777681877</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.2387148438435</v>
+        <v>128.2717682898316</v>
       </c>
       <c r="E14" t="n">
         <v>260.7520178445325</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.4761722178268</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.90034532759861</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>71.702249726126</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.33294527187074</v>
       </c>
       <c r="U14" t="n">
-        <v>58.85362636197977</v>
+        <v>129.0703310864398</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.1672036117644</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.1640990897997</v>
       </c>
       <c r="X14" t="n">
         <v>248.4955812204145</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.3210538404809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>72.85461975755115</v>
       </c>
       <c r="C15" t="n">
         <v>48.65956601664608</v>
@@ -1695,13 +1695,13 @@
         <v>33.66741579641892</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.14021417279439</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7462257866671</v>
+        <v>13.38020787591222</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7874291657197</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S15" t="n">
-        <v>41.45073190796424</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T15" t="n">
-        <v>74.90007241643129</v>
+        <v>197.2660903271862</v>
       </c>
       <c r="U15" t="n">
-        <v>102.2729364973427</v>
+        <v>224.6389544080976</v>
       </c>
       <c r="V15" t="n">
-        <v>231.4674628749211</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.09561169772336</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.30513350783112</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>37.20345669493214</v>
       </c>
       <c r="I16" t="n">
-        <v>24.4092076086486</v>
+        <v>24.40920760864859</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>40.58392448666082</v>
       </c>
       <c r="S16" t="n">
-        <v>95.9445248155025</v>
+        <v>95.94452481550249</v>
       </c>
       <c r="T16" t="n">
         <v>104.9742591446403</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>159.6653220190806</v>
+        <v>159.6653220190805</v>
       </c>
       <c r="C17" t="n">
-        <v>142.9340077066282</v>
+        <v>142.9340077066281</v>
       </c>
       <c r="D17" t="n">
-        <v>132.5536447822839</v>
+        <v>132.5536447822838</v>
       </c>
       <c r="E17" t="n">
-        <v>159.066947782973</v>
+        <v>159.0669477829729</v>
       </c>
       <c r="F17" t="n">
-        <v>183.2427755082264</v>
+        <v>183.2427755082263</v>
       </c>
       <c r="G17" t="n">
-        <v>190.2859951896445</v>
+        <v>190.2859951896444</v>
       </c>
       <c r="H17" t="n">
         <v>108.7911021562672</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.3852610248802</v>
+        <v>27.38526102488011</v>
       </c>
       <c r="V17" t="n">
-        <v>104.4821335502049</v>
+        <v>104.4821335502048</v>
       </c>
       <c r="W17" t="n">
-        <v>126.4790290282401</v>
+        <v>126.47902902824</v>
       </c>
       <c r="X17" t="n">
-        <v>146.8105111588549</v>
+        <v>146.8105111588548</v>
       </c>
       <c r="Y17" t="n">
         <v>162.6359837789213</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>14.80379885833041</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>135.7462257866671</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.96701853457127</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2660903271862</v>
       </c>
       <c r="U18" t="n">
         <v>224.6389544080976</v>
@@ -1983,13 +1983,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>142.8930636447316</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>50.45907101507888</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.3159077683333</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.289189083080726</v>
+        <v>3.289189083080641</v>
       </c>
       <c r="U19" t="n">
-        <v>61.98851617701214</v>
+        <v>61.98851617701206</v>
       </c>
       <c r="V19" t="n">
-        <v>28.88526309462469</v>
+        <v>28.88526309462461</v>
       </c>
       <c r="W19" t="n">
-        <v>62.04148891510107</v>
+        <v>198.3436735716515</v>
       </c>
       <c r="X19" t="n">
-        <v>2.08927195999479</v>
+        <v>2.089271959994704</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>159.6653220190806</v>
+        <v>159.6653220190805</v>
       </c>
       <c r="C20" t="n">
-        <v>142.9340077066282</v>
+        <v>142.9340077066281</v>
       </c>
       <c r="D20" t="n">
-        <v>132.5536447822839</v>
+        <v>132.5536447822838</v>
       </c>
       <c r="E20" t="n">
-        <v>159.066947782973</v>
+        <v>159.0669477829729</v>
       </c>
       <c r="F20" t="n">
-        <v>183.2427755082264</v>
+        <v>183.2427755082272</v>
       </c>
       <c r="G20" t="n">
         <v>190.2859951896444</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.38526102488021</v>
+        <v>27.38526102488011</v>
       </c>
       <c r="V20" t="n">
-        <v>104.4821335502049</v>
+        <v>104.4821335502048</v>
       </c>
       <c r="W20" t="n">
-        <v>126.4790290282401</v>
+        <v>126.47902902824</v>
       </c>
       <c r="X20" t="n">
-        <v>146.8105111588546</v>
+        <v>146.8105111588548</v>
       </c>
       <c r="Y20" t="n">
         <v>162.6359837789213</v>
@@ -2163,19 +2163,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7462257866671</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7874291657197</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>224.6389544080976</v>
       </c>
       <c r="V21" t="n">
-        <v>25.60683330373684</v>
+        <v>7.857643067340575</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>136.3725712260186</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.3159077683333</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.289189083080726</v>
+        <v>3.289189083080641</v>
       </c>
       <c r="U22" t="n">
-        <v>61.98851617701214</v>
+        <v>61.98851617701206</v>
       </c>
       <c r="V22" t="n">
-        <v>76.4977890049887</v>
+        <v>165.1874477511751</v>
       </c>
       <c r="W22" t="n">
-        <v>62.04148891510107</v>
+        <v>62.04148891510098</v>
       </c>
       <c r="X22" t="n">
-        <v>2.08927195999479</v>
+        <v>2.089271959994704</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.6653220190806</v>
+        <v>159.6653220190805</v>
       </c>
       <c r="C23" t="n">
-        <v>142.9340077066282</v>
+        <v>142.9340077066281</v>
       </c>
       <c r="D23" t="n">
-        <v>132.5536447822839</v>
+        <v>132.5536447822838</v>
       </c>
       <c r="E23" t="n">
-        <v>159.066947782973</v>
+        <v>159.0669477829729</v>
       </c>
       <c r="F23" t="n">
-        <v>183.2427755082264</v>
+        <v>183.2427755082263</v>
       </c>
       <c r="G23" t="n">
         <v>190.2859951896444</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.38526102488021</v>
+        <v>27.38526102488012</v>
       </c>
       <c r="V23" t="n">
-        <v>104.4821335502049</v>
+        <v>104.4821335502048</v>
       </c>
       <c r="W23" t="n">
-        <v>126.4790290282401</v>
+        <v>126.47902902824</v>
       </c>
       <c r="X23" t="n">
-        <v>146.8105111588549</v>
+        <v>146.8105111588548</v>
       </c>
       <c r="Y23" t="n">
         <v>162.6359837789213</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>24.1542513277956</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.7462257866671</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T24" t="n">
         <v>197.2660903271862</v>
@@ -2454,16 +2454,16 @@
         <v>224.6389544080976</v>
       </c>
       <c r="V24" t="n">
-        <v>7.857643067340661</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>25.93825877768549</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>129.9490504262176</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.289189083080726</v>
+        <v>199.9072815079645</v>
       </c>
       <c r="U25" t="n">
-        <v>61.98851617701214</v>
+        <v>61.98851617701206</v>
       </c>
       <c r="V25" t="n">
-        <v>28.88526309462469</v>
+        <v>28.88526309462461</v>
       </c>
       <c r="W25" t="n">
-        <v>62.04148891510107</v>
+        <v>62.04148891510098</v>
       </c>
       <c r="X25" t="n">
-        <v>2.08927195999479</v>
+        <v>2.089271959994704</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.6180924248834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2555,25 @@
         <v>241.1608008756363</v>
       </c>
       <c r="C26" t="n">
-        <v>224.4294865631839</v>
+        <v>224.4294865631838</v>
       </c>
       <c r="D26" t="n">
-        <v>214.0491236388397</v>
+        <v>214.0491236388396</v>
       </c>
       <c r="E26" t="n">
-        <v>240.5624266395269</v>
+        <v>240.5624266395287</v>
       </c>
       <c r="F26" t="n">
         <v>264.7382543647821</v>
       </c>
       <c r="G26" t="n">
-        <v>271.7814740462002</v>
+        <v>271.7814740462001</v>
       </c>
       <c r="H26" t="n">
-        <v>190.286581012823</v>
+        <v>190.2865810128229</v>
       </c>
       <c r="I26" t="n">
-        <v>42.71075412259479</v>
+        <v>42.71075412259474</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.51265852112218</v>
+        <v>51.51265852112212</v>
       </c>
       <c r="T26" t="n">
-        <v>78.14335406686692</v>
+        <v>78.14335406686686</v>
       </c>
       <c r="U26" t="n">
         <v>108.8807398814359</v>
@@ -2615,13 +2615,13 @@
         <v>185.9776124067606</v>
       </c>
       <c r="W26" t="n">
-        <v>207.9745078847959</v>
+        <v>207.9745078847958</v>
       </c>
       <c r="X26" t="n">
-        <v>228.3059900154107</v>
+        <v>228.3059900154106</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.1314626354771</v>
+        <v>244.131462635477</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>116.3659370698979</v>
+        <v>32.05890479778177</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2643,10 +2643,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9506229677905651</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7462257866671</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S27" t="n">
-        <v>21.26114070296041</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T27" t="n">
         <v>197.2660903271862</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>61.11554230282724</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.52808237492508</v>
+        <v>37.52808237492502</v>
       </c>
       <c r="C28" t="n">
-        <v>24.78094381544361</v>
+        <v>24.78094381544355</v>
       </c>
       <c r="D28" t="n">
-        <v>6.449957398760631</v>
+        <v>6.449957398760574</v>
       </c>
       <c r="E28" t="n">
-        <v>4.419015057440447</v>
+        <v>4.41901505744039</v>
       </c>
       <c r="F28" t="n">
-        <v>3.603412294045768</v>
+        <v>3.603412294045711</v>
       </c>
       <c r="G28" t="n">
-        <v>25.10176538249322</v>
+        <v>25.10176538249317</v>
       </c>
       <c r="H28" t="n">
-        <v>17.01386548992832</v>
+        <v>17.01386548992826</v>
       </c>
       <c r="I28" t="n">
-        <v>4.219616403644768</v>
+        <v>4.219616403644711</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.394333281657</v>
+        <v>20.39433328165694</v>
       </c>
       <c r="S28" t="n">
-        <v>75.75493361049867</v>
+        <v>75.75493361049861</v>
       </c>
       <c r="T28" t="n">
-        <v>84.78466793963646</v>
+        <v>84.78466793963641</v>
       </c>
       <c r="U28" t="n">
-        <v>143.4839950335679</v>
+        <v>143.4839950335678</v>
       </c>
       <c r="V28" t="n">
         <v>110.3807419511804</v>
       </c>
       <c r="W28" t="n">
-        <v>143.5369677716568</v>
+        <v>143.5369677716567</v>
       </c>
       <c r="X28" t="n">
-        <v>83.58475081655052</v>
+        <v>83.58475081655047</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.19306475200949</v>
+        <v>76.19306475200943</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>190.2865810128229</v>
       </c>
       <c r="I29" t="n">
-        <v>42.71075412259472</v>
+        <v>42.71075412259474</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.480658702881</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2880,13 +2880,13 @@
         <v>13.47782459141504</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>4.539552953930103</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7462257866671</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7874291657197</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S30" t="n">
-        <v>21.26114070296036</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T30" t="n">
-        <v>54.71048121142741</v>
+        <v>197.2660903271862</v>
       </c>
       <c r="U30" t="n">
         <v>224.6389544080976</v>
@@ -3029,25 +3029,25 @@
         <v>239.2046443300426</v>
       </c>
       <c r="C32" t="n">
-        <v>222.4733300175901</v>
+        <v>222.4733300175902</v>
       </c>
       <c r="D32" t="n">
-        <v>212.0929670932459</v>
+        <v>212.092967093246</v>
       </c>
       <c r="E32" t="n">
-        <v>238.606270093935</v>
+        <v>238.6062700939351</v>
       </c>
       <c r="F32" t="n">
         <v>262.7820978191884</v>
       </c>
       <c r="G32" t="n">
-        <v>269.8253175006064</v>
+        <v>269.8253175006065</v>
       </c>
       <c r="H32" t="n">
-        <v>188.3304244672292</v>
+        <v>188.3304244672293</v>
       </c>
       <c r="I32" t="n">
-        <v>40.75459757700102</v>
+        <v>40.75459757700111</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.55650197552842</v>
+        <v>49.5565019755285</v>
       </c>
       <c r="T32" t="n">
-        <v>76.18719752127316</v>
+        <v>76.18719752127325</v>
       </c>
       <c r="U32" t="n">
-        <v>106.9245833358422</v>
+        <v>106.9245833358423</v>
       </c>
       <c r="V32" t="n">
         <v>184.0214558611669</v>
       </c>
       <c r="W32" t="n">
-        <v>206.0183513392021</v>
+        <v>206.0183513392022</v>
       </c>
       <c r="X32" t="n">
-        <v>226.3498334698169</v>
+        <v>226.349833469817</v>
       </c>
       <c r="Y32" t="n">
-        <v>242.1753060898833</v>
+        <v>242.1753060898834</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>11.52166804582143</v>
       </c>
       <c r="F33" t="n">
         <v>92.75889831723374</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>19.30498415736666</v>
+        <v>19.30498415736674</v>
       </c>
       <c r="T33" t="n">
         <v>197.2660903271862</v>
       </c>
       <c r="U33" t="n">
-        <v>80.12718874674511</v>
+        <v>224.6389544080976</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.57192582933132</v>
+        <v>35.57192582933141</v>
       </c>
       <c r="C34" t="n">
-        <v>22.82478726984985</v>
+        <v>22.82478726984994</v>
       </c>
       <c r="D34" t="n">
-        <v>4.493800853166874</v>
+        <v>4.49380085316696</v>
       </c>
       <c r="E34" t="n">
-        <v>2.46285851184669</v>
+        <v>2.462858511846775</v>
       </c>
       <c r="F34" t="n">
-        <v>1.647255748452011</v>
+        <v>1.647255748452096</v>
       </c>
       <c r="G34" t="n">
-        <v>23.14560883689947</v>
+        <v>23.14560883689955</v>
       </c>
       <c r="H34" t="n">
-        <v>15.05770894433456</v>
+        <v>15.05770894433465</v>
       </c>
       <c r="I34" t="n">
-        <v>2.263459858051011</v>
+        <v>2.263459858051096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.43817673606324</v>
+        <v>18.43817673606333</v>
       </c>
       <c r="S34" t="n">
-        <v>73.79877706490491</v>
+        <v>73.798777064905</v>
       </c>
       <c r="T34" t="n">
-        <v>82.82851139404271</v>
+        <v>82.82851139404279</v>
       </c>
       <c r="U34" t="n">
-        <v>141.5278384879741</v>
+        <v>141.5278384879742</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4245854055867</v>
+        <v>108.4245854055868</v>
       </c>
       <c r="W34" t="n">
-        <v>141.580811226063</v>
+        <v>141.5808112260631</v>
       </c>
       <c r="X34" t="n">
-        <v>81.62859427095677</v>
+        <v>81.62859427095685</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.23690820641573</v>
+        <v>74.23690820641582</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>174.5611537359425</v>
       </c>
       <c r="D35" t="n">
-        <v>164.1807908115983</v>
+        <v>164.1807908115982</v>
       </c>
       <c r="E35" t="n">
         <v>190.6940938122873</v>
@@ -3278,10 +3278,10 @@
         <v>214.8699215375407</v>
       </c>
       <c r="G35" t="n">
-        <v>221.9131412189588</v>
+        <v>221.9131412189587</v>
       </c>
       <c r="H35" t="n">
-        <v>140.4182481855816</v>
+        <v>140.4182481855815</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.644325693880777</v>
+        <v>1.644325693880745</v>
       </c>
       <c r="T35" t="n">
-        <v>28.27502123962552</v>
+        <v>28.27502123962549</v>
       </c>
       <c r="U35" t="n">
-        <v>59.01240705419454</v>
+        <v>59.01240705419451</v>
       </c>
       <c r="V35" t="n">
         <v>136.1092795795192</v>
       </c>
       <c r="W35" t="n">
-        <v>158.1061750575545</v>
+        <v>158.1061750575544</v>
       </c>
       <c r="X35" t="n">
-        <v>178.4376571881693</v>
+        <v>178.4376571881692</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.2631298082357</v>
+        <v>194.2631298082356</v>
       </c>
     </row>
     <row r="36">
@@ -3351,13 +3351,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7462257866671</v>
+        <v>115.8255442235391</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>74.03523147969831</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>25.88660078325727</v>
+        <v>25.88660078325724</v>
       </c>
       <c r="T37" t="n">
-        <v>34.91633511239506</v>
+        <v>34.91633511239503</v>
       </c>
       <c r="U37" t="n">
-        <v>93.61566220632648</v>
+        <v>93.61566220632645</v>
       </c>
       <c r="V37" t="n">
-        <v>60.51240912393902</v>
+        <v>60.51240912393899</v>
       </c>
       <c r="W37" t="n">
-        <v>93.6686349444154</v>
+        <v>93.66863494441537</v>
       </c>
       <c r="X37" t="n">
-        <v>33.71641798930912</v>
+        <v>33.71641798930909</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.32473192476809</v>
+        <v>26.32473192476806</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>174.5611537359425</v>
       </c>
       <c r="D38" t="n">
-        <v>164.1807908115983</v>
+        <v>164.1807908115982</v>
       </c>
       <c r="E38" t="n">
         <v>190.6940938122873</v>
@@ -3515,10 +3515,10 @@
         <v>214.8699215375407</v>
       </c>
       <c r="G38" t="n">
-        <v>221.9131412189588</v>
+        <v>221.9131412189587</v>
       </c>
       <c r="H38" t="n">
-        <v>140.4182481855816</v>
+        <v>140.4182481855815</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.644325693880777</v>
+        <v>1.644325693880745</v>
       </c>
       <c r="T38" t="n">
-        <v>28.27502123962552</v>
+        <v>28.27502123962549</v>
       </c>
       <c r="U38" t="n">
-        <v>59.01240705419454</v>
+        <v>59.01240705419451</v>
       </c>
       <c r="V38" t="n">
         <v>136.1092795795192</v>
       </c>
       <c r="W38" t="n">
-        <v>158.1061750575545</v>
+        <v>158.1061750575544</v>
       </c>
       <c r="X38" t="n">
-        <v>178.4376571881693</v>
+        <v>178.4376571881692</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.2631298082357</v>
+        <v>194.2631298082356</v>
       </c>
     </row>
     <row r="39">
@@ -3591,10 +3591,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7462257866671</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S39" t="n">
-        <v>163.8167498187191</v>
+        <v>25.80069365689024</v>
       </c>
       <c r="T39" t="n">
-        <v>49.91916718116591</v>
+        <v>197.2660903271862</v>
       </c>
       <c r="U39" t="n">
-        <v>32.21501246509746</v>
+        <v>224.6389544080976</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.88660078325727</v>
+        <v>25.88660078325724</v>
       </c>
       <c r="T40" t="n">
-        <v>34.91633511239506</v>
+        <v>34.91633511239503</v>
       </c>
       <c r="U40" t="n">
-        <v>93.61566220632648</v>
+        <v>93.61566220632645</v>
       </c>
       <c r="V40" t="n">
-        <v>60.51240912393902</v>
+        <v>60.51240912393899</v>
       </c>
       <c r="W40" t="n">
-        <v>93.6686349444154</v>
+        <v>93.66863494441537</v>
       </c>
       <c r="X40" t="n">
-        <v>33.71641798930912</v>
+        <v>33.71641798930909</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.32473192476809</v>
+        <v>26.32473192476806</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>192.8638044696298</v>
       </c>
       <c r="C41" t="n">
-        <v>176.1324901571774</v>
+        <v>154.1337802598883</v>
       </c>
       <c r="D41" t="n">
         <v>165.7521272328331</v>
@@ -3755,7 +3755,7 @@
         <v>223.4844776401937</v>
       </c>
       <c r="H41" t="n">
-        <v>123.2065368246443</v>
+        <v>141.9895846068165</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.215662115115663</v>
       </c>
       <c r="T41" t="n">
         <v>29.84635766086041</v>
       </c>
       <c r="U41" t="n">
-        <v>60.58374347542942</v>
+        <v>60.58374347542943</v>
       </c>
       <c r="V41" t="n">
         <v>137.6806160007541</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T42" t="n">
         <v>197.2660903271862</v>
       </c>
       <c r="U42" t="n">
-        <v>204.7182728449702</v>
+        <v>224.6389544080976</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>97.88718657153143</v>
       </c>
     </row>
     <row r="43">
@@ -3989,10 +3989,10 @@
         <v>216.4412579587756</v>
       </c>
       <c r="G44" t="n">
-        <v>201.4857677429058</v>
+        <v>223.4844776401937</v>
       </c>
       <c r="H44" t="n">
-        <v>141.9895846068165</v>
+        <v>119.9908747095292</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.215662115115663</v>
+        <v>3.215662115115666</v>
       </c>
       <c r="T44" t="n">
         <v>29.84635766086041</v>
@@ -4059,7 +4059,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7874291657197</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.49764894302422</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.8167498187191</v>
       </c>
       <c r="T45" t="n">
         <v>197.2660903271862</v>
@@ -4119,10 +4119,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>202.5787345337699</v>
+        <v>113.7919468848656</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>12.81854589682078</v>
       </c>
     </row>
     <row r="46">
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="C2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="E2" t="n">
-        <v>15.3185868169096</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="F2" t="n">
-        <v>7.951047947676434</v>
+        <v>8.616984447234429</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5835090784432668</v>
+        <v>1.249445578001263</v>
       </c>
       <c r="J2" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="K2" t="n">
-        <v>7.804433924178694</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="L2" t="n">
-        <v>15.02535876991412</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="M2" t="n">
-        <v>15.02535876991412</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="N2" t="n">
-        <v>22.24628361564955</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="O2" t="n">
-        <v>25.15650669003785</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="P2" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q2" t="n">
         <v>29.17545392216334</v>
@@ -4355,25 +4355,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S2" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="T2" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="U2" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="V2" t="n">
-        <v>21.80791505293017</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="W2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="X2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.80791505293017</v>
+        <v>15.9845233164676</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="C3" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="D3" t="n">
-        <v>21.80791505293017</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F3" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G3" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H3" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="I3" t="n">
         <v>0.5835090784432668</v>
@@ -4413,16 +4413,16 @@
         <v>15.02535876991412</v>
       </c>
       <c r="L3" t="n">
-        <v>21.95452907642792</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="M3" t="n">
-        <v>21.95452907642792</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N3" t="n">
-        <v>21.95452907642792</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="O3" t="n">
-        <v>29.17545392216334</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="P3" t="n">
         <v>29.17545392216334</v>
@@ -4437,22 +4437,22 @@
         <v>29.17545392216334</v>
       </c>
       <c r="T3" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U3" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="V3" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="W3" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="X3" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.17545392216334</v>
+        <v>7.951047947676434</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="I4" t="n">
-        <v>7.951047947676434</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="J4" t="n">
         <v>0.5835090784432668</v>
@@ -4495,10 +4495,10 @@
         <v>7.804433924178694</v>
       </c>
       <c r="M4" t="n">
-        <v>15.02535876991412</v>
+        <v>8.672802550995488</v>
       </c>
       <c r="N4" t="n">
-        <v>22.24628361564955</v>
+        <v>15.89372739673091</v>
       </c>
       <c r="O4" t="n">
         <v>23.11465224246634</v>
@@ -4510,28 +4510,28 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R4" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S4" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="T4" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="U4" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="V4" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="W4" t="n">
-        <v>29.17545392216334</v>
+        <v>14.440376183697</v>
       </c>
       <c r="X4" t="n">
-        <v>21.80791505293017</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.3185868169096</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="C5" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="D5" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
       <c r="E5" t="n">
         <v>15.3185868169096</v>
@@ -4568,22 +4568,22 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="L5" t="n">
         <v>7.804433924178694</v>
       </c>
       <c r="M5" t="n">
-        <v>15.02535876991412</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="N5" t="n">
-        <v>15.02535876991412</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="O5" t="n">
-        <v>22.24628361564955</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="P5" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q5" t="n">
         <v>29.17545392216334</v>
@@ -4595,7 +4595,7 @@
         <v>29.17545392216334</v>
       </c>
       <c r="T5" t="n">
-        <v>21.80791505293017</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U5" t="n">
         <v>21.80791505293017</v>
@@ -4610,7 +4610,7 @@
         <v>21.80791505293017</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.80791505293017</v>
+        <v>15.3185868169096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.951047947676434</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="F6" t="n">
         <v>0.5835090784432668</v>
@@ -4647,49 +4647,49 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5835090784432668</v>
+        <v>7.512679384957064</v>
       </c>
       <c r="L6" t="n">
-        <v>7.804433924178694</v>
+        <v>14.73360423069249</v>
       </c>
       <c r="M6" t="n">
-        <v>7.804433924178694</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="N6" t="n">
-        <v>7.804433924178694</v>
+        <v>21.95452907642792</v>
       </c>
       <c r="O6" t="n">
-        <v>15.02535876991412</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="P6" t="n">
-        <v>21.95452907642792</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q6" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R6" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="S6" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="T6" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="U6" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="V6" t="n">
         <v>21.80791505293017</v>
       </c>
-      <c r="S6" t="n">
-        <v>15.3185868169096</v>
-      </c>
-      <c r="T6" t="n">
-        <v>15.3185868169096</v>
-      </c>
-      <c r="U6" t="n">
-        <v>15.3185868169096</v>
-      </c>
-      <c r="V6" t="n">
-        <v>15.3185868169096</v>
-      </c>
       <c r="W6" t="n">
-        <v>15.3185868169096</v>
+        <v>14.440376183697</v>
       </c>
       <c r="X6" t="n">
-        <v>7.951047947676434</v>
+        <v>14.440376183697</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.951047947676434</v>
+        <v>7.072837314463837</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="C7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="D7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="E7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="F7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="G7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
       <c r="H7" t="n">
         <v>0.5835090784432668</v>
@@ -4729,10 +4729,10 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="L7" t="n">
-        <v>1.451877705260062</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="M7" t="n">
-        <v>8.672802550995488</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="N7" t="n">
         <v>15.89372739673091</v>
@@ -4747,16 +4747,16 @@
         <v>29.17545392216334</v>
       </c>
       <c r="R7" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="S7" t="n">
-        <v>21.80791505293017</v>
+        <v>14.440376183697</v>
       </c>
       <c r="T7" t="n">
-        <v>14.440376183697</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="U7" t="n">
-        <v>14.440376183697</v>
+        <v>7.072837314463837</v>
       </c>
       <c r="V7" t="n">
         <v>7.072837314463837</v>
@@ -4768,7 +4768,7 @@
         <v>7.072837314463837</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.072837314463837</v>
+        <v>0.5835090784432668</v>
       </c>
     </row>
     <row r="8">
@@ -4811,16 +4811,16 @@
         <v>30.6008167318917</v>
       </c>
       <c r="M8" t="n">
-        <v>40.69389663340559</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="N8" t="n">
-        <v>40.69389663340559</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="O8" t="n">
-        <v>40.69389663340559</v>
+        <v>45.30703448168432</v>
       </c>
       <c r="P8" t="n">
-        <v>55.40011438319821</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Q8" t="n">
         <v>59.4190616153237</v>
@@ -4829,7 +4829,7 @@
         <v>44.41424807610054</v>
       </c>
       <c r="S8" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="T8" t="n">
         <v>29.40943453687738</v>
@@ -4838,16 +4838,16 @@
         <v>29.40943453687738</v>
       </c>
       <c r="V8" t="n">
-        <v>29.40943453687738</v>
+        <v>23.5607336407628</v>
       </c>
       <c r="W8" t="n">
-        <v>29.40943453687738</v>
+        <v>23.5607336407628</v>
       </c>
       <c r="X8" t="n">
-        <v>29.40943453687738</v>
+        <v>23.5607336407628</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.40943453687738</v>
+        <v>23.5607336407628</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="C9" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="D9" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="F9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="G9" t="n">
         <v>1.188381232306474</v>
@@ -4881,7 +4881,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="J9" t="n">
-        <v>1.188381232306474</v>
+        <v>8.581692078791374</v>
       </c>
       <c r="K9" t="n">
         <v>15.30040836594585</v>
@@ -4893,10 +4893,10 @@
         <v>44.71284386553108</v>
       </c>
       <c r="N9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="O9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="P9" t="n">
         <v>59.4190616153237</v>
@@ -4908,25 +4908,25 @@
         <v>59.4190616153237</v>
       </c>
       <c r="S9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="T9" t="n">
-        <v>59.4190616153237</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="U9" t="n">
-        <v>44.41424807610054</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="V9" t="n">
-        <v>31.19800831075279</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="W9" t="n">
-        <v>31.19800831075279</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="X9" t="n">
-        <v>31.19800831075279</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.19800831075279</v>
+        <v>14.40462099765423</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44.41424807610054</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="C10" t="n">
-        <v>44.41424807610054</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="D10" t="n">
-        <v>44.41424807610054</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="E10" t="n">
-        <v>31.19800831075279</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="F10" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="G10" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="H10" t="n">
         <v>1.188381232306474</v>
@@ -4969,13 +4969,13 @@
         <v>15.89459898209909</v>
       </c>
       <c r="M10" t="n">
-        <v>30.6008167318917</v>
+        <v>30.00662611573847</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30703448168432</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="O10" t="n">
-        <v>53.3582599356267</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="P10" t="n">
         <v>59.4190616153237</v>
@@ -4984,28 +4984,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="T10" t="n">
-        <v>59.4190616153237</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="U10" t="n">
-        <v>59.4190616153237</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="V10" t="n">
-        <v>59.4190616153237</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="W10" t="n">
-        <v>59.4190616153237</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="X10" t="n">
-        <v>59.4190616153237</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.41424807610054</v>
+        <v>1.188381232306474</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>885.2290243122751</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="C11" t="n">
-        <v>885.2290243122751</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="D11" t="n">
-        <v>648.6242618437464</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="E11" t="n">
-        <v>385.2383852331074</v>
+        <v>439.6021174935852</v>
       </c>
       <c r="F11" t="n">
-        <v>97.43248061716196</v>
+        <v>151.7962128776398</v>
       </c>
       <c r="G11" t="n">
-        <v>97.43248061716196</v>
+        <v>151.7962128776398</v>
       </c>
       <c r="H11" t="n">
-        <v>97.43248061716196</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="I11" t="n">
         <v>33.89677826605247</v>
       </c>
       <c r="J11" t="n">
-        <v>76.74235074715895</v>
+        <v>76.74235074715898</v>
       </c>
       <c r="K11" t="n">
-        <v>263.2333500590436</v>
+        <v>263.2333500590435</v>
       </c>
       <c r="L11" t="n">
-        <v>546.5610034907814</v>
+        <v>546.5610034907813</v>
       </c>
       <c r="M11" t="n">
         <v>877.0299031859535</v>
@@ -5054,7 +5054,7 @@
         <v>1197.328960180521</v>
       </c>
       <c r="O11" t="n">
-        <v>1453.64992572577</v>
+        <v>1453.649925725771</v>
       </c>
       <c r="P11" t="n">
         <v>1635.475146455512</v>
@@ -5066,25 +5066,25 @@
         <v>1694.838913302623</v>
       </c>
       <c r="S11" t="n">
-        <v>1694.838913302623</v>
+        <v>1622.412398427749</v>
       </c>
       <c r="T11" t="n">
-        <v>1694.838913302623</v>
+        <v>1523.086191082425</v>
       </c>
       <c r="U11" t="n">
-        <v>1630.693743898996</v>
+        <v>1392.71211927794</v>
       </c>
       <c r="V11" t="n">
-        <v>1630.693743898996</v>
+        <v>1184.462418659996</v>
       </c>
       <c r="W11" t="n">
-        <v>1400.224956939603</v>
+        <v>953.9936317006025</v>
       </c>
       <c r="X11" t="n">
-        <v>1149.219319343225</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1149.219319343225</v>
+        <v>702.9879941042242</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>655.5930332394328</v>
+        <v>531.5452695268181</v>
       </c>
       <c r="C12" t="n">
-        <v>606.4419564549419</v>
+        <v>358.7921544486352</v>
       </c>
       <c r="D12" t="n">
-        <v>582.4556881075777</v>
+        <v>334.805886101271</v>
       </c>
       <c r="E12" t="n">
-        <v>424.8461591104324</v>
+        <v>177.1963571041257</v>
       </c>
       <c r="F12" t="n">
-        <v>279.8903691270493</v>
+        <v>47.41213975687289</v>
       </c>
       <c r="G12" t="n">
-        <v>142.772969342537</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="H12" t="n">
         <v>33.89677826605247</v>
@@ -5118,10 +5118,10 @@
         <v>33.89677826605247</v>
       </c>
       <c r="J12" t="n">
-        <v>33.89677826605247</v>
+        <v>67.19735289612466</v>
       </c>
       <c r="K12" t="n">
-        <v>217.4183775786174</v>
+        <v>250.7189522086896</v>
       </c>
       <c r="L12" t="n">
         <v>496.4766613596547</v>
@@ -5145,25 +5145,25 @@
         <v>1694.838913302623</v>
       </c>
       <c r="S12" t="n">
-        <v>1652.969487132963</v>
+        <v>1529.367448839271</v>
       </c>
       <c r="T12" t="n">
         <v>1453.710810034795</v>
       </c>
       <c r="U12" t="n">
-        <v>1227.248500698064</v>
+        <v>1350.404813572833</v>
       </c>
       <c r="V12" t="n">
-        <v>1116.599295517356</v>
+        <v>1239.755608392125</v>
       </c>
       <c r="W12" t="n">
-        <v>987.6868421443816</v>
+        <v>987.2411167254587</v>
       </c>
       <c r="X12" t="n">
-        <v>904.7619818436509</v>
+        <v>780.7142181310362</v>
       </c>
       <c r="Y12" t="n">
-        <v>699.0335460673014</v>
+        <v>574.9857823546866</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.1045704648234</v>
+        <v>263.1045704648236</v>
       </c>
       <c r="C13" t="n">
-        <v>217.6797876158867</v>
+        <v>217.6797876158868</v>
       </c>
       <c r="D13" t="n">
-        <v>190.7711526625893</v>
+        <v>190.7711526625894</v>
       </c>
       <c r="E13" t="n">
-        <v>165.9139746197163</v>
+        <v>165.9139746197164</v>
       </c>
       <c r="F13" t="n">
-        <v>141.8806377519894</v>
+        <v>141.8806377519896</v>
       </c>
       <c r="G13" t="n">
-        <v>96.13179271411346</v>
+        <v>96.13179271411383</v>
       </c>
       <c r="H13" t="n">
-        <v>58.55254352731335</v>
+        <v>58.55254352731369</v>
       </c>
       <c r="I13" t="n">
         <v>33.89677826605247</v>
       </c>
       <c r="J13" t="n">
-        <v>83.34206424810347</v>
+        <v>83.34206424810372</v>
       </c>
       <c r="K13" t="n">
-        <v>216.5670603111857</v>
+        <v>216.5670603111861</v>
       </c>
       <c r="L13" t="n">
-        <v>408.9746503367256</v>
+        <v>408.9746503367261</v>
       </c>
       <c r="M13" t="n">
-        <v>615.8491030217667</v>
+        <v>615.8491030217672</v>
       </c>
       <c r="N13" t="n">
-        <v>825.8263000043107</v>
+        <v>825.8263000043112</v>
       </c>
       <c r="O13" t="n">
         <v>1013.685413564119</v>
@@ -5221,28 +5221,28 @@
         <v>1230.122609229184</v>
       </c>
       <c r="R13" t="n">
-        <v>1189.128746111344</v>
+        <v>1189.128746111345</v>
       </c>
       <c r="S13" t="n">
         <v>1092.215084681544</v>
       </c>
       <c r="T13" t="n">
-        <v>986.1804794849376</v>
+        <v>986.1804794849378</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8536246985016</v>
+        <v>820.8536246985018</v>
       </c>
       <c r="V13" t="n">
-        <v>688.9643992882145</v>
+        <v>688.9643992882147</v>
       </c>
       <c r="W13" t="n">
-        <v>523.5840366855269</v>
+        <v>523.5840366855273</v>
       </c>
       <c r="X13" t="n">
-        <v>418.7614689869872</v>
+        <v>418.7614689869875</v>
       </c>
       <c r="Y13" t="n">
-        <v>321.40525084859</v>
+        <v>321.4052508485902</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>780.9773948888442</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="C14" t="n">
-        <v>533.8874173452202</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="D14" t="n">
-        <v>297.2826548766914</v>
+        <v>573.4205513872222</v>
       </c>
       <c r="E14" t="n">
-        <v>33.89677826605247</v>
+        <v>310.0346747765832</v>
       </c>
       <c r="F14" t="n">
-        <v>33.89677826605247</v>
+        <v>310.0346747765832</v>
       </c>
       <c r="G14" t="n">
-        <v>33.89677826605247</v>
+        <v>310.0346747765832</v>
       </c>
       <c r="H14" t="n">
-        <v>33.89677826605247</v>
+        <v>97.43248061716218</v>
       </c>
       <c r="I14" t="n">
         <v>33.89677826605247</v>
@@ -5279,7 +5279,7 @@
         <v>76.74235074715898</v>
       </c>
       <c r="K14" t="n">
-        <v>263.2333500590437</v>
+        <v>263.2333500590436</v>
       </c>
       <c r="L14" t="n">
         <v>546.5610034907816</v>
@@ -5306,22 +5306,22 @@
         <v>1622.412398427749</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.412398427749</v>
+        <v>1523.086191082425</v>
       </c>
       <c r="U14" t="n">
-        <v>1562.964290991405</v>
+        <v>1392.71211927794</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.964290991405</v>
+        <v>1184.462418659996</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.964290991405</v>
+        <v>953.9936317006025</v>
       </c>
       <c r="X14" t="n">
-        <v>1311.958653395027</v>
+        <v>702.9879941042242</v>
       </c>
       <c r="Y14" t="n">
-        <v>1044.967689919794</v>
+        <v>702.9879941042242</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9909949457411</v>
+        <v>175.9107272818729</v>
       </c>
       <c r="C15" t="n">
-        <v>482.8399181612501</v>
+        <v>126.7596504973819</v>
       </c>
       <c r="D15" t="n">
-        <v>458.8536498138859</v>
+        <v>102.7733821500176</v>
       </c>
       <c r="E15" t="n">
-        <v>424.8461591104324</v>
+        <v>68.76589144656418</v>
       </c>
       <c r="F15" t="n">
-        <v>279.8903691270493</v>
+        <v>47.41213975687289</v>
       </c>
       <c r="G15" t="n">
-        <v>142.772969342537</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="H15" t="n">
         <v>33.89677826605247</v>
@@ -5355,19 +5355,19 @@
         <v>33.89677826605247</v>
       </c>
       <c r="J15" t="n">
-        <v>33.89677826605247</v>
+        <v>67.19735289612466</v>
       </c>
       <c r="K15" t="n">
-        <v>33.89677826605247</v>
+        <v>67.19735289612466</v>
       </c>
       <c r="L15" t="n">
-        <v>341.5138234770382</v>
+        <v>374.8143981071104</v>
       </c>
       <c r="M15" t="n">
-        <v>753.2885999543175</v>
+        <v>786.5891745843896</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.761230996717</v>
+        <v>1206.061805626789</v>
       </c>
       <c r="O15" t="n">
         <v>1443.905486752069</v>
@@ -5379,28 +5379,28 @@
         <v>1694.838913302623</v>
       </c>
       <c r="R15" t="n">
-        <v>1694.838913302623</v>
+        <v>1616.558459824821</v>
       </c>
       <c r="S15" t="n">
-        <v>1652.969487132963</v>
+        <v>1451.086995361469</v>
       </c>
       <c r="T15" t="n">
-        <v>1577.312848328487</v>
+        <v>1251.828318263301</v>
       </c>
       <c r="U15" t="n">
-        <v>1474.006851866524</v>
+        <v>1024.920283507646</v>
       </c>
       <c r="V15" t="n">
-        <v>1240.201333811048</v>
+        <v>790.6690400332473</v>
       </c>
       <c r="W15" t="n">
-        <v>987.6868421443818</v>
+        <v>538.1545483665806</v>
       </c>
       <c r="X15" t="n">
-        <v>904.7619818436511</v>
+        <v>331.6276497721581</v>
       </c>
       <c r="Y15" t="n">
-        <v>699.0335460673016</v>
+        <v>249.5012522895004</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.104570464824</v>
+        <v>263.1045704648237</v>
       </c>
       <c r="C16" t="n">
-        <v>217.6797876158871</v>
+        <v>217.6797876158869</v>
       </c>
       <c r="D16" t="n">
-        <v>190.7711526625897</v>
+        <v>190.7711526625895</v>
       </c>
       <c r="E16" t="n">
-        <v>165.9139746197167</v>
+        <v>165.9139746197165</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8806377519899</v>
+        <v>141.8806377519896</v>
       </c>
       <c r="G16" t="n">
         <v>96.13179271411383</v>
       </c>
       <c r="H16" t="n">
-        <v>58.55254352731369</v>
+        <v>58.55254352731367</v>
       </c>
       <c r="I16" t="n">
         <v>33.89677826605247</v>
@@ -5437,49 +5437,49 @@
         <v>83.34206424810344</v>
       </c>
       <c r="K16" t="n">
-        <v>216.5670603111855</v>
+        <v>216.5670603111856</v>
       </c>
       <c r="L16" t="n">
-        <v>408.9746503367255</v>
+        <v>408.9746503367256</v>
       </c>
       <c r="M16" t="n">
-        <v>615.8491030217666</v>
+        <v>615.8491030217667</v>
       </c>
       <c r="N16" t="n">
-        <v>825.8263000043107</v>
+        <v>825.8263000043114</v>
       </c>
       <c r="O16" t="n">
         <v>1013.685413564119</v>
       </c>
       <c r="P16" t="n">
-        <v>1168.693000188186</v>
+        <v>1168.693000188187</v>
       </c>
       <c r="Q16" t="n">
         <v>1230.122609229184</v>
       </c>
       <c r="R16" t="n">
-        <v>1189.128746111344</v>
+        <v>1189.128746111345</v>
       </c>
       <c r="S16" t="n">
-        <v>1092.215084681544</v>
+        <v>1092.215084681545</v>
       </c>
       <c r="T16" t="n">
-        <v>986.1804794849376</v>
+        <v>986.1804794849381</v>
       </c>
       <c r="U16" t="n">
         <v>820.853624698502</v>
       </c>
       <c r="V16" t="n">
-        <v>688.9643992882148</v>
+        <v>688.964399288215</v>
       </c>
       <c r="W16" t="n">
         <v>523.5840366855274</v>
       </c>
       <c r="X16" t="n">
-        <v>418.7614689869878</v>
+        <v>418.7614689869876</v>
       </c>
       <c r="Y16" t="n">
-        <v>321.4052508485905</v>
+        <v>321.4052508485903</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>960.0326097064795</v>
+        <v>960.0326097064803</v>
       </c>
       <c r="C17" t="n">
-        <v>815.6548241442289</v>
+        <v>815.6548241442298</v>
       </c>
       <c r="D17" t="n">
-        <v>681.7622536570734</v>
+        <v>681.7622536570744</v>
       </c>
       <c r="E17" t="n">
-        <v>521.0885690278078</v>
+        <v>521.0885690278088</v>
       </c>
       <c r="F17" t="n">
-        <v>335.9948563932358</v>
+        <v>335.9948563932368</v>
       </c>
       <c r="G17" t="n">
-        <v>143.7867804441002</v>
+        <v>143.7867804441001</v>
       </c>
       <c r="H17" t="n">
         <v>33.89677826605247</v>
@@ -5546,7 +5546,7 @@
         <v>1694.838913302623</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.177033479511</v>
+        <v>1667.177033479512</v>
       </c>
       <c r="V17" t="n">
         <v>1561.639524842941</v>
@@ -5558,7 +5558,7 @@
         <v>1285.589484249916</v>
       </c>
       <c r="Y17" t="n">
-        <v>1121.310712756056</v>
+        <v>1121.310712756057</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>568.9098090351314</v>
+        <v>646.3326121092759</v>
       </c>
       <c r="C18" t="n">
-        <v>553.9564768549997</v>
+        <v>473.5794970310932</v>
       </c>
       <c r="D18" t="n">
-        <v>406.3681702139436</v>
+        <v>473.5794970310932</v>
       </c>
       <c r="E18" t="n">
-        <v>248.7586412167983</v>
+        <v>315.9699680339479</v>
       </c>
       <c r="F18" t="n">
-        <v>248.7586412167983</v>
+        <v>171.0141780505647</v>
       </c>
       <c r="G18" t="n">
-        <v>111.6412414322861</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6412414322861</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="I18" t="n">
         <v>33.89677826605247</v>
@@ -5595,49 +5595,49 @@
         <v>67.19735289612466</v>
       </c>
       <c r="K18" t="n">
-        <v>250.7189522086896</v>
+        <v>106.6708008878534</v>
       </c>
       <c r="L18" t="n">
-        <v>558.3359974196753</v>
+        <v>414.2878460988391</v>
       </c>
       <c r="M18" t="n">
-        <v>970.1107738969547</v>
+        <v>826.0626225761184</v>
       </c>
       <c r="N18" t="n">
-        <v>1110.783244940699</v>
+        <v>1245.535253618518</v>
       </c>
       <c r="O18" t="n">
-        <v>1443.905486752069</v>
+        <v>1578.657495429888</v>
       </c>
       <c r="P18" t="n">
-        <v>1694.838913302623</v>
+        <v>1578.657495429888</v>
       </c>
       <c r="Q18" t="n">
         <v>1694.838913302623</v>
       </c>
       <c r="R18" t="n">
-        <v>1694.838913302623</v>
+        <v>1616.558459824821</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.838913302623</v>
+        <v>1451.086995361469</v>
       </c>
       <c r="T18" t="n">
-        <v>1694.838913302623</v>
+        <v>1251.828318263301</v>
       </c>
       <c r="U18" t="n">
-        <v>1467.930878546969</v>
+        <v>1024.920283507646</v>
       </c>
       <c r="V18" t="n">
-        <v>1233.67963507257</v>
+        <v>790.6690400332473</v>
       </c>
       <c r="W18" t="n">
-        <v>981.1651434059035</v>
+        <v>646.3326121092759</v>
       </c>
       <c r="X18" t="n">
-        <v>774.6382448114809</v>
+        <v>646.3326121092759</v>
       </c>
       <c r="Y18" t="n">
-        <v>568.9098090351314</v>
+        <v>646.3326121092759</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="C19" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="D19" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="E19" t="n">
-        <v>181.5321534274712</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="F19" t="n">
         <v>33.89677826605247</v>
@@ -5692,31 +5692,31 @@
         <v>392.3935678162513</v>
       </c>
       <c r="Q19" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="R19" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="S19" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="T19" t="n">
-        <v>389.0711546010182</v>
+        <v>328.1459952390655</v>
       </c>
       <c r="U19" t="n">
-        <v>326.4564917959555</v>
+        <v>265.5313324340028</v>
       </c>
       <c r="V19" t="n">
-        <v>297.2794583670416</v>
+        <v>236.3542990050891</v>
       </c>
       <c r="W19" t="n">
-        <v>234.6112877457274</v>
+        <v>36.00715398321884</v>
       </c>
       <c r="X19" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="Y19" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605247</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>960.03260970648</v>
+        <v>960.0326097064805</v>
       </c>
       <c r="C20" t="n">
-        <v>815.6548241442293</v>
+        <v>815.6548241442297</v>
       </c>
       <c r="D20" t="n">
-        <v>681.7622536570739</v>
+        <v>681.7622536570743</v>
       </c>
       <c r="E20" t="n">
-        <v>521.0885690278083</v>
+        <v>521.0885690278087</v>
       </c>
       <c r="F20" t="n">
-        <v>335.9948563932361</v>
+        <v>335.9948563932358</v>
       </c>
       <c r="G20" t="n">
-        <v>143.7867804441002</v>
+        <v>143.7867804441001</v>
       </c>
       <c r="H20" t="n">
         <v>33.89677826605247</v>
@@ -5753,7 +5753,7 @@
         <v>76.74235074715898</v>
       </c>
       <c r="K20" t="n">
-        <v>263.2333500590437</v>
+        <v>263.2333500590436</v>
       </c>
       <c r="L20" t="n">
         <v>546.5610034907816</v>
@@ -5786,16 +5786,16 @@
         <v>1667.177033479512</v>
       </c>
       <c r="V20" t="n">
-        <v>1561.639524842942</v>
+        <v>1561.639524842941</v>
       </c>
       <c r="W20" t="n">
-        <v>1433.882929864921</v>
+        <v>1433.882929864922</v>
       </c>
       <c r="X20" t="n">
-        <v>1285.589484249916</v>
+        <v>1285.589484249917</v>
       </c>
       <c r="Y20" t="n">
-        <v>1121.310712756056</v>
+        <v>1121.310712756057</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>610.2530132023774</v>
+        <v>499.1939899686745</v>
       </c>
       <c r="C21" t="n">
-        <v>437.4998981241946</v>
+        <v>326.4408748904917</v>
       </c>
       <c r="D21" t="n">
-        <v>437.4998981241946</v>
+        <v>178.8525682494356</v>
       </c>
       <c r="E21" t="n">
-        <v>279.8903691270493</v>
+        <v>178.8525682494356</v>
       </c>
       <c r="F21" t="n">
-        <v>279.8903691270493</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="G21" t="n">
-        <v>142.772969342537</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="H21" t="n">
         <v>33.89677826605247</v>
@@ -5835,46 +5835,46 @@
         <v>250.7189522086896</v>
       </c>
       <c r="L21" t="n">
-        <v>530.4692639715745</v>
+        <v>558.3359974196753</v>
       </c>
       <c r="M21" t="n">
-        <v>942.2440404488539</v>
+        <v>970.1107738969547</v>
       </c>
       <c r="N21" t="n">
-        <v>1361.716671491253</v>
+        <v>1389.583404939354</v>
       </c>
       <c r="O21" t="n">
-        <v>1694.838913302623</v>
+        <v>1389.583404939354</v>
       </c>
       <c r="P21" t="n">
-        <v>1694.838913302623</v>
+        <v>1578.657495429888</v>
       </c>
       <c r="Q21" t="n">
         <v>1694.838913302623</v>
       </c>
       <c r="R21" t="n">
-        <v>1694.838913302623</v>
+        <v>1616.558459824821</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.838913302623</v>
+        <v>1451.086995361469</v>
       </c>
       <c r="T21" t="n">
-        <v>1694.838913302623</v>
+        <v>1451.086995361469</v>
       </c>
       <c r="U21" t="n">
-        <v>1467.930878546969</v>
+        <v>1224.178960605814</v>
       </c>
       <c r="V21" t="n">
-        <v>1442.065390361377</v>
+        <v>1216.24194740648</v>
       </c>
       <c r="W21" t="n">
-        <v>1189.55089869471</v>
+        <v>1078.491875461007</v>
       </c>
       <c r="X21" t="n">
-        <v>983.0240001002874</v>
+        <v>871.9649768665846</v>
       </c>
       <c r="Y21" t="n">
-        <v>777.2955643239378</v>
+        <v>666.2365410902351</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.4074515130417</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="C22" t="n">
-        <v>184.4074515130417</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="D22" t="n">
         <v>33.89677826605247</v>
@@ -5929,31 +5929,31 @@
         <v>392.3935678162513</v>
       </c>
       <c r="Q22" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="R22" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="S22" t="n">
-        <v>392.3935678162513</v>
+        <v>331.4684084542985</v>
       </c>
       <c r="T22" t="n">
-        <v>389.0711546010182</v>
+        <v>328.1459952390655</v>
       </c>
       <c r="U22" t="n">
-        <v>326.4564917959555</v>
+        <v>265.5313324340028</v>
       </c>
       <c r="V22" t="n">
-        <v>249.1859978515224</v>
+        <v>98.67532460453297</v>
       </c>
       <c r="W22" t="n">
-        <v>186.5178272302082</v>
+        <v>36.00715398321884</v>
       </c>
       <c r="X22" t="n">
-        <v>184.4074515130417</v>
+        <v>33.89677826605247</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.4074515130417</v>
+        <v>33.89677826605247</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>960.0326097064798</v>
+        <v>960.0326097064793</v>
       </c>
       <c r="C23" t="n">
-        <v>815.654824144229</v>
+        <v>815.6548241442288</v>
       </c>
       <c r="D23" t="n">
-        <v>681.7622536570736</v>
+        <v>681.7622536570734</v>
       </c>
       <c r="E23" t="n">
-        <v>521.088569027808</v>
+        <v>521.0885690278078</v>
       </c>
       <c r="F23" t="n">
         <v>335.9948563932358</v>
       </c>
       <c r="G23" t="n">
-        <v>143.7867804441002</v>
+        <v>143.7867804441001</v>
       </c>
       <c r="H23" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="I23" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="J23" t="n">
-        <v>76.74235074715897</v>
+        <v>76.74235074715895</v>
       </c>
       <c r="K23" t="n">
         <v>263.2333500590436</v>
       </c>
       <c r="L23" t="n">
-        <v>546.5610034907816</v>
+        <v>546.5610034907814</v>
       </c>
       <c r="M23" t="n">
-        <v>877.0299031859531</v>
+        <v>877.0299031859536</v>
       </c>
       <c r="N23" t="n">
         <v>1197.328960180521</v>
       </c>
       <c r="O23" t="n">
-        <v>1453.64992572577</v>
+        <v>1453.649925725771</v>
       </c>
       <c r="P23" t="n">
         <v>1635.475146455512</v>
@@ -6011,22 +6011,22 @@
         <v>1694.838913302623</v>
       </c>
       <c r="R23" t="n">
-        <v>1694.838913302623</v>
+        <v>1694.838913302622</v>
       </c>
       <c r="S23" t="n">
-        <v>1694.838913302623</v>
+        <v>1694.838913302622</v>
       </c>
       <c r="T23" t="n">
-        <v>1694.838913302623</v>
+        <v>1694.838913302622</v>
       </c>
       <c r="U23" t="n">
-        <v>1667.177033479512</v>
+        <v>1667.177033479511</v>
       </c>
       <c r="V23" t="n">
         <v>1561.639524842941</v>
       </c>
       <c r="W23" t="n">
-        <v>1433.882929864921</v>
+        <v>1433.88292986492</v>
       </c>
       <c r="X23" t="n">
         <v>1285.589484249916</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>634.6512468668174</v>
+        <v>427.4786757681053</v>
       </c>
       <c r="C24" t="n">
-        <v>461.8981317886345</v>
+        <v>427.4786757681053</v>
       </c>
       <c r="D24" t="n">
-        <v>461.8981317886345</v>
+        <v>279.8903691270492</v>
       </c>
       <c r="E24" t="n">
-        <v>304.2886027914892</v>
+        <v>279.8903691270492</v>
       </c>
       <c r="F24" t="n">
         <v>279.8903691270492</v>
@@ -6060,58 +6060,58 @@
         <v>142.772969342537</v>
       </c>
       <c r="H24" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="I24" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="J24" t="n">
-        <v>67.19735289612464</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="K24" t="n">
-        <v>250.7189522086896</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="L24" t="n">
-        <v>558.3359974196753</v>
+        <v>341.5138234770382</v>
       </c>
       <c r="M24" t="n">
-        <v>970.1107738969547</v>
+        <v>753.2885999543175</v>
       </c>
       <c r="N24" t="n">
-        <v>1389.583404939354</v>
+        <v>1110.783244940697</v>
       </c>
       <c r="O24" t="n">
-        <v>1389.583404939354</v>
+        <v>1443.905486752068</v>
       </c>
       <c r="P24" t="n">
-        <v>1640.516831489908</v>
+        <v>1694.838913302622</v>
       </c>
       <c r="Q24" t="n">
-        <v>1694.838913302623</v>
+        <v>1694.838913302622</v>
       </c>
       <c r="R24" t="n">
-        <v>1694.838913302623</v>
+        <v>1616.55845982482</v>
       </c>
       <c r="S24" t="n">
-        <v>1694.838913302623</v>
+        <v>1451.086995361467</v>
       </c>
       <c r="T24" t="n">
-        <v>1495.580236204455</v>
+        <v>1251.828318263299</v>
       </c>
       <c r="U24" t="n">
-        <v>1268.672201448801</v>
+        <v>1024.920283507645</v>
       </c>
       <c r="V24" t="n">
-        <v>1260.735188249467</v>
+        <v>790.6690400332459</v>
       </c>
       <c r="W24" t="n">
-        <v>1008.2206965828</v>
+        <v>764.4687786416443</v>
       </c>
       <c r="X24" t="n">
-        <v>801.6937979883778</v>
+        <v>633.2071115444548</v>
       </c>
       <c r="Y24" t="n">
-        <v>801.6937979883778</v>
+        <v>427.4786757681053</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="C25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="D25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="E25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="F25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="G25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="H25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="I25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="J25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="K25" t="n">
-        <v>45.97941659748729</v>
+        <v>45.97941659748727</v>
       </c>
       <c r="L25" t="n">
         <v>117.24464889138</v>
@@ -6175,22 +6175,22 @@
         <v>392.3935678162513</v>
       </c>
       <c r="T25" t="n">
-        <v>389.0711546010182</v>
+        <v>190.4670208385094</v>
       </c>
       <c r="U25" t="n">
-        <v>326.4564917959555</v>
+        <v>127.8523580334467</v>
       </c>
       <c r="V25" t="n">
-        <v>297.2794583670416</v>
+        <v>98.67532460453295</v>
       </c>
       <c r="W25" t="n">
-        <v>234.6112877457274</v>
+        <v>36.00715398321881</v>
       </c>
       <c r="X25" t="n">
-        <v>232.5009120285609</v>
+        <v>33.89677826605244</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.89677826605246</v>
+        <v>33.89677826605244</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1520.799673174295</v>
+        <v>1520.799673174296</v>
       </c>
       <c r="C26" t="n">
-        <v>1294.103222100372</v>
+        <v>1294.103222100373</v>
       </c>
       <c r="D26" t="n">
-        <v>1077.891986101544</v>
+        <v>1077.891986101545</v>
       </c>
       <c r="E26" t="n">
-        <v>834.8996359606073</v>
+        <v>834.8996359606072</v>
       </c>
       <c r="F26" t="n">
-        <v>567.4872578143627</v>
+        <v>567.4872578143626</v>
       </c>
       <c r="G26" t="n">
-        <v>292.9605163535545</v>
+        <v>292.9605163535543</v>
       </c>
       <c r="H26" t="n">
         <v>100.7518486638343</v>
       </c>
       <c r="I26" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J26" t="n">
         <v>241.5852982881331</v>
@@ -6230,7 +6230,7 @@
         <v>569.2063506246188</v>
       </c>
       <c r="L26" t="n">
-        <v>993.6640570809578</v>
+        <v>993.6640570809579</v>
       </c>
       <c r="M26" t="n">
         <v>1465.263009800731</v>
@@ -6257,19 +6257,19 @@
         <v>2749.517969840474</v>
       </c>
       <c r="U26" t="n">
-        <v>2639.53742450569</v>
+        <v>2639.537424505691</v>
       </c>
       <c r="V26" t="n">
-        <v>2451.681250357447</v>
+        <v>2451.681250357448</v>
       </c>
       <c r="W26" t="n">
-        <v>2241.605989867753</v>
+        <v>2241.605989867755</v>
       </c>
       <c r="X26" t="n">
-        <v>2010.993878741076</v>
+        <v>2010.993878741077</v>
       </c>
       <c r="Y26" t="n">
-        <v>1764.396441735543</v>
+        <v>1764.396441735545</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>618.4264840007839</v>
+        <v>540.1460305229815</v>
       </c>
       <c r="C27" t="n">
-        <v>500.8851334251295</v>
+        <v>507.76329840401</v>
       </c>
       <c r="D27" t="n">
-        <v>353.2968267840734</v>
+        <v>360.1749917629539</v>
       </c>
       <c r="E27" t="n">
-        <v>195.6872977869281</v>
+        <v>202.5654627658086</v>
       </c>
       <c r="F27" t="n">
-        <v>194.7270725669376</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="G27" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="H27" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="I27" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J27" t="n">
-        <v>90.9102474124976</v>
+        <v>90.91024741249761</v>
       </c>
       <c r="K27" t="n">
         <v>274.4318467250626</v>
@@ -6327,28 +6327,28 @@
         <v>2132.132716187964</v>
       </c>
       <c r="R27" t="n">
-        <v>2132.132716187964</v>
+        <v>2053.852262710162</v>
       </c>
       <c r="S27" t="n">
-        <v>2110.656816488005</v>
+        <v>1888.380798246809</v>
       </c>
       <c r="T27" t="n">
-        <v>1911.398139389837</v>
+        <v>1689.122121148641</v>
       </c>
       <c r="U27" t="n">
-        <v>1684.490104634182</v>
+        <v>1462.214086392987</v>
       </c>
       <c r="V27" t="n">
-        <v>1450.238861159783</v>
+        <v>1227.962842918588</v>
       </c>
       <c r="W27" t="n">
-        <v>1197.724369493116</v>
+        <v>975.4483512519213</v>
       </c>
       <c r="X27" t="n">
-        <v>991.197470898694</v>
+        <v>768.9214526574988</v>
       </c>
       <c r="Y27" t="n">
-        <v>785.4690351223444</v>
+        <v>707.188581644542</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.0627796932908</v>
+        <v>144.0627796932905</v>
       </c>
       <c r="C28" t="n">
-        <v>119.0315233140549</v>
+        <v>119.0315233140545</v>
       </c>
       <c r="D28" t="n">
-        <v>112.5164148304583</v>
+        <v>112.516414830458</v>
       </c>
       <c r="E28" t="n">
-        <v>108.0527632572861</v>
+        <v>108.0527632572859</v>
       </c>
       <c r="F28" t="n">
-        <v>104.4129528592601</v>
+        <v>104.4129528592599</v>
       </c>
       <c r="G28" t="n">
-        <v>79.05763429108509</v>
+        <v>79.05763429108499</v>
       </c>
       <c r="H28" t="n">
-        <v>61.87191157398578</v>
+        <v>61.87191157398574</v>
       </c>
       <c r="I28" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J28" t="n">
         <v>127.0426540574302</v>
       </c>
       <c r="K28" t="n">
-        <v>280.2553454134661</v>
+        <v>139.1252923888651</v>
       </c>
       <c r="L28" t="n">
-        <v>492.65063073196</v>
+        <v>210.3905246827578</v>
       </c>
       <c r="M28" t="n">
-        <v>578.3827256853536</v>
+        <v>296.1226196361515</v>
       </c>
       <c r="N28" t="n">
-        <v>685.8270424851617</v>
+        <v>526.0875119116494</v>
       </c>
       <c r="O28" t="n">
-        <v>893.6738513379235</v>
+        <v>671.1264939793703</v>
       </c>
       <c r="P28" t="n">
-        <v>927.5390802303438</v>
+        <v>846.1217758963917</v>
       </c>
       <c r="Q28" t="n">
-        <v>927.5390802303438</v>
+        <v>927.5390802303428</v>
       </c>
       <c r="R28" t="n">
-        <v>906.9387435822053</v>
+        <v>906.9387435822046</v>
       </c>
       <c r="S28" t="n">
-        <v>830.4186086221057</v>
+        <v>830.4186086221049</v>
       </c>
       <c r="T28" t="n">
-        <v>744.7775298952001</v>
+        <v>744.7775298951995</v>
       </c>
       <c r="U28" t="n">
-        <v>599.8442015784649</v>
+        <v>599.8442015784642</v>
       </c>
       <c r="V28" t="n">
-        <v>488.3485026378786</v>
+        <v>488.348502637878</v>
       </c>
       <c r="W28" t="n">
-        <v>343.361666504892</v>
+        <v>343.3616665048914</v>
       </c>
       <c r="X28" t="n">
-        <v>258.932625276053</v>
+        <v>258.9326252760525</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.9699336073566</v>
+        <v>181.9699336073561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1520.799673174296</v>
+        <v>1520.799673174297</v>
       </c>
       <c r="C29" t="n">
-        <v>1294.103222100373</v>
+        <v>1294.103222100374</v>
       </c>
       <c r="D29" t="n">
-        <v>1077.891986101545</v>
+        <v>1077.891986101546</v>
       </c>
       <c r="E29" t="n">
-        <v>834.8996359606072</v>
+        <v>834.8996359606081</v>
       </c>
       <c r="F29" t="n">
-        <v>567.4872578143626</v>
+        <v>567.4872578143635</v>
       </c>
       <c r="G29" t="n">
-        <v>292.9605163535543</v>
+        <v>292.9605163535552</v>
       </c>
       <c r="H29" t="n">
-        <v>100.7518486638342</v>
+        <v>100.7518486638343</v>
       </c>
       <c r="I29" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J29" t="n">
         <v>241.5852982881331</v>
@@ -6479,10 +6479,10 @@
         <v>2324.14313838975</v>
       </c>
       <c r="P29" t="n">
-        <v>2647.098412144092</v>
+        <v>2647.098412144093</v>
       </c>
       <c r="Q29" t="n">
-        <v>2847.592232015805</v>
+        <v>2847.592232015806</v>
       </c>
       <c r="R29" t="n">
         <v>2880.483639121271</v>
@@ -6497,16 +6497,16 @@
         <v>2639.537424505691</v>
       </c>
       <c r="V29" t="n">
-        <v>2451.681250357448</v>
+        <v>2451.681250357447</v>
       </c>
       <c r="W29" t="n">
-        <v>2241.605989867755</v>
+        <v>2241.605989867754</v>
       </c>
       <c r="X29" t="n">
         <v>2010.993878741077</v>
       </c>
       <c r="Y29" t="n">
-        <v>1764.396441735545</v>
+        <v>1764.396441735546</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>782.514439579797</v>
+        <v>396.1504657595888</v>
       </c>
       <c r="C30" t="n">
-        <v>609.7613245016141</v>
+        <v>223.397350681406</v>
       </c>
       <c r="D30" t="n">
-        <v>462.173017860558</v>
+        <v>75.80904404034982</v>
       </c>
       <c r="E30" t="n">
-        <v>448.5590536268054</v>
+        <v>62.19507980659725</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6032636434222</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="G30" t="n">
-        <v>166.48586385891</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="H30" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="I30" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J30" t="n">
-        <v>90.9102474124976</v>
+        <v>90.91024741249761</v>
       </c>
       <c r="K30" t="n">
         <v>274.4318467250626</v>
@@ -6564,28 +6564,28 @@
         <v>2132.132716187964</v>
       </c>
       <c r="R30" t="n">
-        <v>2132.132716187964</v>
+        <v>2053.852262710162</v>
       </c>
       <c r="S30" t="n">
-        <v>2110.656816488005</v>
+        <v>1888.380798246809</v>
       </c>
       <c r="T30" t="n">
-        <v>2055.393704153229</v>
+        <v>1689.122121148641</v>
       </c>
       <c r="U30" t="n">
-        <v>1828.485669397575</v>
+        <v>1462.214086392987</v>
       </c>
       <c r="V30" t="n">
-        <v>1594.234425923176</v>
+        <v>1227.962842918588</v>
       </c>
       <c r="W30" t="n">
-        <v>1341.719934256509</v>
+        <v>975.4483512519213</v>
       </c>
       <c r="X30" t="n">
-        <v>1135.193035662087</v>
+        <v>768.9214526574988</v>
       </c>
       <c r="Y30" t="n">
-        <v>929.4645998857374</v>
+        <v>563.1930168811492</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.0627796932904</v>
+        <v>144.0627796932905</v>
       </c>
       <c r="C31" t="n">
         <v>119.0315233140545</v>
@@ -6610,34 +6610,34 @@
         <v>104.4129528592599</v>
       </c>
       <c r="G31" t="n">
-        <v>79.05763429108498</v>
+        <v>79.05763429108499</v>
       </c>
       <c r="H31" t="n">
-        <v>61.87191157398573</v>
+        <v>61.87191157398574</v>
       </c>
       <c r="I31" t="n">
-        <v>57.60967278242541</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0426540574302</v>
+        <v>57.60967278242543</v>
       </c>
       <c r="K31" t="n">
-        <v>280.2553454134662</v>
+        <v>157.7347699377753</v>
       </c>
       <c r="L31" t="n">
-        <v>351.5205777073589</v>
+        <v>370.1300552562692</v>
       </c>
       <c r="M31" t="n">
-        <v>578.3827256853539</v>
+        <v>455.8621502096629</v>
       </c>
       <c r="N31" t="n">
-        <v>667.2175649362506</v>
+        <v>544.6969894605596</v>
       </c>
       <c r="O31" t="n">
-        <v>733.9343207644113</v>
+        <v>752.5437983133214</v>
       </c>
       <c r="P31" t="n">
-        <v>846.1217758963917</v>
+        <v>927.5390802303428</v>
       </c>
       <c r="Q31" t="n">
         <v>927.5390802303428</v>
@@ -6655,10 +6655,10 @@
         <v>599.8442015784642</v>
       </c>
       <c r="V31" t="n">
-        <v>488.3485026378779</v>
+        <v>488.348502637878</v>
       </c>
       <c r="W31" t="n">
-        <v>343.3616665048913</v>
+        <v>343.3616665048914</v>
       </c>
       <c r="X31" t="n">
         <v>258.9326252760525</v>
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1506.363391102094</v>
+        <v>1506.363391102095</v>
       </c>
       <c r="C32" t="n">
-        <v>1281.642855730791</v>
+        <v>1281.642855730792</v>
       </c>
       <c r="D32" t="n">
         <v>1067.407535434583</v>
       </c>
       <c r="E32" t="n">
-        <v>826.3911009962649</v>
+        <v>826.3911009962652</v>
       </c>
       <c r="F32" t="n">
-        <v>560.9546385526403</v>
+        <v>560.9546385526405</v>
       </c>
       <c r="G32" t="n">
-        <v>288.4038127944521</v>
+        <v>288.4038127944514</v>
       </c>
       <c r="H32" t="n">
-        <v>98.17106080735113</v>
+        <v>98.17106080735121</v>
       </c>
       <c r="I32" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="J32" t="n">
-        <v>242.9170211144077</v>
+        <v>195.8489307538708</v>
       </c>
       <c r="K32" t="n">
-        <v>572.4746684310312</v>
+        <v>525.4065780704943</v>
       </c>
       <c r="L32" t="n">
-        <v>998.868969867508</v>
+        <v>951.8008795069711</v>
       </c>
       <c r="M32" t="n">
         <v>1425.336427206882</v>
       </c>
       <c r="N32" t="n">
-        <v>1888.702132206188</v>
+        <v>1888.702132206189</v>
       </c>
       <c r="O32" t="n">
-        <v>2288.089745756176</v>
+        <v>2288.089745756177</v>
       </c>
       <c r="P32" t="n">
         <v>2612.981614490657</v>
       </c>
       <c r="Q32" t="n">
-        <v>2815.412029342507</v>
+        <v>2815.412029342508</v>
       </c>
       <c r="R32" t="n">
-        <v>2850.24003142811</v>
+        <v>2850.240031428111</v>
       </c>
       <c r="S32" t="n">
         <v>2800.182958725557</v>
@@ -6731,19 +6731,19 @@
         <v>2723.226193552553</v>
       </c>
       <c r="U32" t="n">
-        <v>2615.221563920389</v>
+        <v>2615.22156392039</v>
       </c>
       <c r="V32" t="n">
-        <v>2429.341305474766</v>
+        <v>2429.341305474767</v>
       </c>
       <c r="W32" t="n">
-        <v>2221.241960687693</v>
+        <v>2221.241960687694</v>
       </c>
       <c r="X32" t="n">
-        <v>1992.605765263635</v>
+        <v>1992.605765263636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1747.984243960723</v>
+        <v>1747.984243960724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>765.7690080155535</v>
+        <v>619.7975275495409</v>
       </c>
       <c r="C33" t="n">
-        <v>593.0158929373706</v>
+        <v>447.044412471358</v>
       </c>
       <c r="D33" t="n">
-        <v>445.4275862963145</v>
+        <v>299.4561058303019</v>
       </c>
       <c r="E33" t="n">
         <v>287.8180572991691</v>
@@ -6768,13 +6768,13 @@
         <v>194.1222004130744</v>
       </c>
       <c r="G33" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="H33" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="I33" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="J33" t="n">
         <v>90.3053752586344</v>
@@ -6810,19 +6810,19 @@
         <v>1912.769182938594</v>
       </c>
       <c r="U33" t="n">
-        <v>1831.832628648952</v>
+        <v>1685.861148182939</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.581385174553</v>
+        <v>1451.60990470854</v>
       </c>
       <c r="W33" t="n">
-        <v>1345.066893507886</v>
+        <v>1199.095413041873</v>
       </c>
       <c r="X33" t="n">
-        <v>1138.539994913463</v>
+        <v>992.5685144474509</v>
       </c>
       <c r="Y33" t="n">
-        <v>932.8115591371139</v>
+        <v>786.8400786711013</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.6264976210879</v>
+        <v>129.6264976210886</v>
       </c>
       <c r="C34" t="n">
-        <v>106.5711569444719</v>
+        <v>106.5711569444724</v>
       </c>
       <c r="D34" t="n">
-        <v>102.0319641634953</v>
+        <v>102.0319641634957</v>
       </c>
       <c r="E34" t="n">
-        <v>99.54422829294307</v>
+        <v>99.54422829294342</v>
       </c>
       <c r="F34" t="n">
-        <v>97.880333597537</v>
+        <v>97.88033359753726</v>
       </c>
       <c r="G34" t="n">
-        <v>74.50093073198198</v>
+        <v>74.50093073198215</v>
       </c>
       <c r="H34" t="n">
-        <v>59.29112371750262</v>
+        <v>59.29112371750271</v>
       </c>
       <c r="I34" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="J34" t="n">
-        <v>57.00480062856221</v>
+        <v>57.00480062856222</v>
       </c>
       <c r="K34" t="n">
         <v>69.08743895999703</v>
       </c>
       <c r="L34" t="n">
-        <v>283.4193192586287</v>
+        <v>140.3526712538897</v>
       </c>
       <c r="M34" t="n">
-        <v>512.2180622167614</v>
+        <v>369.1514142120223</v>
       </c>
       <c r="N34" t="n">
-        <v>651.6709241092414</v>
+        <v>457.986253462919</v>
       </c>
       <c r="O34" t="n">
-        <v>718.387679937402</v>
+        <v>667.7696572958185</v>
       </c>
       <c r="P34" t="n">
-        <v>895.3195568345612</v>
+        <v>811.9656575204737</v>
       </c>
       <c r="Q34" t="n">
-        <v>895.3195568345612</v>
+        <v>895.3195568345626</v>
       </c>
       <c r="R34" t="n">
-        <v>876.6951358890428</v>
+        <v>876.6951358890441</v>
       </c>
       <c r="S34" t="n">
-        <v>802.1509166315631</v>
+        <v>802.1509166315643</v>
       </c>
       <c r="T34" t="n">
-        <v>718.4857536072775</v>
+        <v>718.4857536072786</v>
       </c>
       <c r="U34" t="n">
-        <v>575.5283409931623</v>
+        <v>575.5283409931633</v>
       </c>
       <c r="V34" t="n">
-        <v>466.008557755196</v>
+        <v>466.0085577551969</v>
       </c>
       <c r="W34" t="n">
-        <v>322.9976373248292</v>
+        <v>322.9976373248301</v>
       </c>
       <c r="X34" t="n">
-        <v>240.5445117986102</v>
+        <v>240.544511798611</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.5577358325337</v>
+        <v>165.5577358325344</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1160.152709312822</v>
       </c>
       <c r="C35" t="n">
-        <v>983.8283115997491</v>
+        <v>983.8283115997488</v>
       </c>
       <c r="D35" t="n">
-        <v>817.989128961771</v>
+        <v>817.9891289617708</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3688321816828</v>
+        <v>625.3688321816826</v>
       </c>
       <c r="F35" t="n">
-        <v>408.3285073962882</v>
+        <v>408.3285073962879</v>
       </c>
       <c r="G35" t="n">
-        <v>184.1738192963303</v>
+        <v>184.1738192963302</v>
       </c>
       <c r="H35" t="n">
         <v>42.33720496745998</v>
@@ -6935,28 +6935,28 @@
         <v>42.33720496745998</v>
       </c>
       <c r="J35" t="n">
-        <v>85.18277744856647</v>
+        <v>226.0029266895299</v>
       </c>
       <c r="K35" t="n">
-        <v>271.6737767604511</v>
+        <v>412.4939260014146</v>
       </c>
       <c r="L35" t="n">
-        <v>745.501132715759</v>
+        <v>695.8215794331525</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.970032410931</v>
+        <v>1026.290479128324</v>
       </c>
       <c r="N35" t="n">
-        <v>1586.768791929069</v>
+        <v>1346.589536122892</v>
       </c>
       <c r="O35" t="n">
-        <v>1843.089757474318</v>
+        <v>1793.410204191712</v>
       </c>
       <c r="P35" t="n">
-        <v>2024.91497820406</v>
+        <v>1975.235424921453</v>
       </c>
       <c r="Q35" t="n">
-        <v>2116.860248372999</v>
+        <v>2034.599191768564</v>
       </c>
       <c r="R35" t="n">
         <v>2116.860248372999</v>
@@ -6977,7 +6977,7 @@
         <v>1729.842865923731</v>
       </c>
       <c r="X35" t="n">
-        <v>1549.602808157904</v>
+        <v>1549.602808157903</v>
       </c>
       <c r="Y35" t="n">
         <v>1353.377424513221</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>802.3613454517397</v>
+        <v>624.6299158857781</v>
       </c>
       <c r="C36" t="n">
-        <v>629.6082303735568</v>
+        <v>451.8768008075953</v>
       </c>
       <c r="D36" t="n">
-        <v>482.0199237325006</v>
+        <v>304.2884941665392</v>
       </c>
       <c r="E36" t="n">
-        <v>324.4103947353553</v>
+        <v>304.2884941665392</v>
       </c>
       <c r="F36" t="n">
-        <v>179.4546047519722</v>
+        <v>159.332704183156</v>
       </c>
       <c r="G36" t="n">
         <v>42.33720496745998</v>
@@ -7014,10 +7014,10 @@
         <v>42.33720496745998</v>
       </c>
       <c r="J36" t="n">
-        <v>75.63777959753179</v>
+        <v>75.63777959753216</v>
       </c>
       <c r="K36" t="n">
-        <v>259.1593789100968</v>
+        <v>259.1593789100972</v>
       </c>
       <c r="L36" t="n">
         <v>566.7764241210825</v>
@@ -7053,13 +7053,13 @@
         <v>1456.442293044777</v>
       </c>
       <c r="W36" t="n">
-        <v>1381.659230944072</v>
+        <v>1203.927801378111</v>
       </c>
       <c r="X36" t="n">
-        <v>1175.13233234965</v>
+        <v>997.4009027836881</v>
       </c>
       <c r="Y36" t="n">
-        <v>969.4038965733001</v>
+        <v>791.6724670073386</v>
       </c>
     </row>
     <row r="37">
@@ -7072,70 +7072,70 @@
         <v>42.33720496745998</v>
       </c>
       <c r="C37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="D37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="E37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="F37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="G37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="H37" t="n">
-        <v>56.20485186616065</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="I37" t="n">
-        <v>56.20485186616065</v>
+        <v>56.20485186616042</v>
       </c>
       <c r="J37" t="n">
-        <v>56.20485186616065</v>
+        <v>56.20485186616042</v>
       </c>
       <c r="K37" t="n">
-        <v>68.28749019759547</v>
+        <v>68.28749019759525</v>
       </c>
       <c r="L37" t="n">
-        <v>139.5527224914882</v>
+        <v>139.5527224914879</v>
       </c>
       <c r="M37" t="n">
-        <v>225.2848174448819</v>
+        <v>225.2848174448816</v>
       </c>
       <c r="N37" t="n">
-        <v>314.1196566957786</v>
+        <v>314.1196566957784</v>
       </c>
       <c r="O37" t="n">
-        <v>380.8364125239392</v>
+        <v>380.836412523939</v>
       </c>
       <c r="P37" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="Q37" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="R37" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="S37" t="n">
-        <v>388.5535598171097</v>
+        <v>388.5535598171095</v>
       </c>
       <c r="T37" t="n">
-        <v>353.284534451054</v>
+        <v>353.2845344510539</v>
       </c>
       <c r="U37" t="n">
-        <v>258.7232594951687</v>
+        <v>258.7232594951686</v>
       </c>
       <c r="V37" t="n">
-        <v>197.5996139154323</v>
+        <v>197.5996139154322</v>
       </c>
       <c r="W37" t="n">
         <v>102.9848311432955</v>
       </c>
       <c r="X37" t="n">
-        <v>68.92784327530653</v>
+        <v>68.9278432753065</v>
       </c>
       <c r="Y37" t="n">
         <v>42.33720496745998</v>
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1160.152709312823</v>
+        <v>1160.152709312822</v>
       </c>
       <c r="C38" t="n">
-        <v>983.8283115997496</v>
+        <v>983.8283115997485</v>
       </c>
       <c r="D38" t="n">
-        <v>817.9891289617715</v>
+        <v>817.9891289617706</v>
       </c>
       <c r="E38" t="n">
-        <v>625.3688321816833</v>
+        <v>625.3688321816824</v>
       </c>
       <c r="F38" t="n">
-        <v>408.3285073962886</v>
+        <v>408.3285073962877</v>
       </c>
       <c r="G38" t="n">
-        <v>184.1738192963303</v>
+        <v>184.1738192963302</v>
       </c>
       <c r="H38" t="n">
         <v>42.33720496745998</v>
       </c>
       <c r="I38" t="n">
-        <v>49.42320788506012</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="J38" t="n">
-        <v>282.7684828897368</v>
+        <v>85.18277744856647</v>
       </c>
       <c r="K38" t="n">
-        <v>469.2594822016214</v>
+        <v>271.6737767604511</v>
       </c>
       <c r="L38" t="n">
-        <v>752.5871356333594</v>
+        <v>745.5011327157591</v>
       </c>
       <c r="M38" t="n">
-        <v>1083.056035328531</v>
+        <v>1266.469734934502</v>
       </c>
       <c r="N38" t="n">
-        <v>1593.854794846669</v>
+        <v>1586.768791929069</v>
       </c>
       <c r="O38" t="n">
-        <v>1850.175760391919</v>
+        <v>1843.089757474319</v>
       </c>
       <c r="P38" t="n">
-        <v>2032.00098112166</v>
+        <v>2024.91497820406</v>
       </c>
       <c r="Q38" t="n">
-        <v>2091.364747968772</v>
+        <v>2084.278745051171</v>
       </c>
       <c r="R38" t="n">
         <v>2116.860248372999</v>
@@ -7205,19 +7205,19 @@
         <v>2086.638685813902</v>
       </c>
       <c r="U38" t="n">
-        <v>2027.030193839968</v>
+        <v>2027.030193839967</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.546073052575</v>
+        <v>1889.546073052574</v>
       </c>
       <c r="W38" t="n">
-        <v>1729.842865923732</v>
+        <v>1729.842865923731</v>
       </c>
       <c r="X38" t="n">
-        <v>1549.602808157904</v>
+        <v>1549.602808157903</v>
       </c>
       <c r="Y38" t="n">
-        <v>1353.377424513222</v>
+        <v>1353.377424513221</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>802.3613454517397</v>
+        <v>520.2881556838443</v>
       </c>
       <c r="C39" t="n">
-        <v>629.6082303735568</v>
+        <v>347.5350406056614</v>
       </c>
       <c r="D39" t="n">
-        <v>482.0199237325006</v>
+        <v>199.9467339646053</v>
       </c>
       <c r="E39" t="n">
-        <v>324.4103947353553</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="F39" t="n">
-        <v>179.4546047519722</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="G39" t="n">
         <v>42.33720496745998</v>
@@ -7251,16 +7251,16 @@
         <v>42.33720496745998</v>
       </c>
       <c r="J39" t="n">
-        <v>75.63777959753224</v>
+        <v>75.63777959753179</v>
       </c>
       <c r="K39" t="n">
-        <v>259.1593789100972</v>
+        <v>259.1593789100968</v>
       </c>
       <c r="L39" t="n">
-        <v>566.776424121083</v>
+        <v>566.7764241210825</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5512005983624</v>
+        <v>978.5512005983619</v>
       </c>
       <c r="N39" t="n">
         <v>1416.623162138339</v>
@@ -7269,34 +7269,34 @@
         <v>1749.745403949709</v>
       </c>
       <c r="P39" t="n">
-        <v>2000.678830500264</v>
+        <v>2000.678830500263</v>
       </c>
       <c r="Q39" t="n">
         <v>2116.860248372999</v>
       </c>
       <c r="R39" t="n">
-        <v>2116.860248372999</v>
+        <v>2038.579794895197</v>
       </c>
       <c r="S39" t="n">
-        <v>1951.388783909646</v>
+        <v>2012.518488171065</v>
       </c>
       <c r="T39" t="n">
-        <v>1900.96538271655</v>
+        <v>1813.259811072897</v>
       </c>
       <c r="U39" t="n">
-        <v>1868.424966085138</v>
+        <v>1586.351776317243</v>
       </c>
       <c r="V39" t="n">
-        <v>1634.173722610739</v>
+        <v>1352.100532842844</v>
       </c>
       <c r="W39" t="n">
-        <v>1381.659230944072</v>
+        <v>1099.586041176177</v>
       </c>
       <c r="X39" t="n">
-        <v>1175.13233234965</v>
+        <v>893.0591425817543</v>
       </c>
       <c r="Y39" t="n">
-        <v>969.4038965733001</v>
+        <v>687.3307068054047</v>
       </c>
     </row>
     <row r="40">
@@ -7327,52 +7327,52 @@
         <v>42.33720496745998</v>
       </c>
       <c r="I40" t="n">
-        <v>42.33720496745998</v>
+        <v>56.20485186616042</v>
       </c>
       <c r="J40" t="n">
-        <v>42.33720496745998</v>
+        <v>56.20485186616042</v>
       </c>
       <c r="K40" t="n">
-        <v>54.4198432988948</v>
+        <v>68.28749019759525</v>
       </c>
       <c r="L40" t="n">
-        <v>139.5527224914882</v>
+        <v>139.5527224914879</v>
       </c>
       <c r="M40" t="n">
-        <v>225.2848174448819</v>
+        <v>225.2848174448816</v>
       </c>
       <c r="N40" t="n">
-        <v>314.1196566957786</v>
+        <v>314.1196566957784</v>
       </c>
       <c r="O40" t="n">
-        <v>380.8364125239393</v>
+        <v>380.836412523939</v>
       </c>
       <c r="P40" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="Q40" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="R40" t="n">
-        <v>414.7016414163595</v>
+        <v>414.7016414163592</v>
       </c>
       <c r="S40" t="n">
-        <v>388.5535598171097</v>
+        <v>388.5535598171095</v>
       </c>
       <c r="T40" t="n">
-        <v>353.2845344510541</v>
+        <v>353.2845344510539</v>
       </c>
       <c r="U40" t="n">
-        <v>258.7232594951687</v>
+        <v>258.7232594951686</v>
       </c>
       <c r="V40" t="n">
-        <v>197.5996139154323</v>
+        <v>197.5996139154322</v>
       </c>
       <c r="W40" t="n">
-        <v>102.9848311432956</v>
+        <v>102.9848311432955</v>
       </c>
       <c r="X40" t="n">
-        <v>68.92784327530654</v>
+        <v>68.9278432753065</v>
       </c>
       <c r="Y40" t="n">
         <v>42.33720496745998</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.703184813062</v>
+        <v>1147.455041262439</v>
       </c>
       <c r="C41" t="n">
-        <v>972.7915785936906</v>
+        <v>991.7643541312389</v>
       </c>
       <c r="D41" t="n">
-        <v>805.3651874494146</v>
+        <v>824.337962986963</v>
       </c>
       <c r="E41" t="n">
-        <v>611.1576821630285</v>
+        <v>630.1304577005769</v>
       </c>
       <c r="F41" t="n">
-        <v>392.530148871336</v>
+        <v>411.5029244088843</v>
       </c>
       <c r="G41" t="n">
-        <v>166.7882522650805</v>
+        <v>185.7610278026281</v>
       </c>
       <c r="H41" t="n">
         <v>42.33720496745998</v>
@@ -7409,7 +7409,7 @@
         <v>42.33720496745998</v>
       </c>
       <c r="J41" t="n">
-        <v>85.18277744856648</v>
+        <v>85.18277744856647</v>
       </c>
       <c r="K41" t="n">
         <v>271.6737767604511</v>
@@ -7418,16 +7418,16 @@
         <v>743.9455096587367</v>
       </c>
       <c r="M41" t="n">
-        <v>1110.107158789782</v>
+        <v>1263.358488820456</v>
       </c>
       <c r="N41" t="n">
-        <v>1430.406215784349</v>
+        <v>1583.657545815024</v>
       </c>
       <c r="O41" t="n">
-        <v>1875.671260796146</v>
+        <v>1839.978511360273</v>
       </c>
       <c r="P41" t="n">
-        <v>2057.496481525888</v>
+        <v>2021.803732090015</v>
       </c>
       <c r="Q41" t="n">
         <v>2116.860248372999</v>
@@ -7436,25 +7436,25 @@
         <v>2116.860248372999</v>
       </c>
       <c r="S41" t="n">
-        <v>2116.860248372999</v>
+        <v>2113.612104822377</v>
       </c>
       <c r="T41" t="n">
-        <v>2086.712412351928</v>
+        <v>2083.464268801305</v>
       </c>
       <c r="U41" t="n">
-        <v>2025.516711871696</v>
+        <v>2022.268568321074</v>
       </c>
       <c r="V41" t="n">
-        <v>1886.445382578005</v>
+        <v>1883.197239027383</v>
       </c>
       <c r="W41" t="n">
-        <v>1725.154966942864</v>
+        <v>1721.906823392242</v>
       </c>
       <c r="X41" t="n">
-        <v>1543.327700670739</v>
+        <v>1540.079557120117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1345.515108519759</v>
+        <v>1342.266964969136</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>644.7518164545943</v>
+        <v>654.7730388106834</v>
       </c>
       <c r="C42" t="n">
-        <v>471.9987013764115</v>
+        <v>482.0199237325006</v>
       </c>
       <c r="D42" t="n">
-        <v>324.4103947353553</v>
+        <v>482.0199237325006</v>
       </c>
       <c r="E42" t="n">
         <v>324.4103947353553</v>
@@ -7488,16 +7488,16 @@
         <v>42.33720496745998</v>
       </c>
       <c r="J42" t="n">
-        <v>75.63777959753216</v>
+        <v>75.63777959753202</v>
       </c>
       <c r="K42" t="n">
         <v>259.1593789100971</v>
       </c>
       <c r="L42" t="n">
-        <v>566.776424121083</v>
+        <v>566.7764241210828</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5512005983624</v>
+        <v>978.5512005983621</v>
       </c>
       <c r="N42" t="n">
         <v>1416.623162138339</v>
@@ -7506,34 +7506,34 @@
         <v>1749.745403949709</v>
       </c>
       <c r="P42" t="n">
-        <v>2000.678830500264</v>
+        <v>2000.678830500263</v>
       </c>
       <c r="Q42" t="n">
         <v>2116.860248372999</v>
       </c>
       <c r="R42" t="n">
-        <v>2116.860248372999</v>
+        <v>2038.579794895197</v>
       </c>
       <c r="S42" t="n">
-        <v>2116.860248372999</v>
+        <v>1873.108330431844</v>
       </c>
       <c r="T42" t="n">
-        <v>1917.601571274831</v>
+        <v>1673.849653333676</v>
       </c>
       <c r="U42" t="n">
-        <v>1710.815437087993</v>
+        <v>1446.941618578022</v>
       </c>
       <c r="V42" t="n">
-        <v>1476.564193613593</v>
+        <v>1212.690375103623</v>
       </c>
       <c r="W42" t="n">
-        <v>1224.049701946927</v>
+        <v>960.1758834369558</v>
       </c>
       <c r="X42" t="n">
-        <v>1017.522803352504</v>
+        <v>753.6489848425333</v>
       </c>
       <c r="Y42" t="n">
-        <v>811.7943675761547</v>
+        <v>654.7730388106834</v>
       </c>
     </row>
     <row r="43">
@@ -7576,19 +7576,19 @@
         <v>125.6850755927875</v>
       </c>
       <c r="M43" t="n">
-        <v>236.3952769889669</v>
+        <v>211.4171705461812</v>
       </c>
       <c r="N43" t="n">
-        <v>325.2301162398636</v>
+        <v>300.2520097970779</v>
       </c>
       <c r="O43" t="n">
-        <v>391.9468720680242</v>
+        <v>366.9687656252385</v>
       </c>
       <c r="P43" t="n">
-        <v>425.8121009604445</v>
+        <v>400.8339945176588</v>
       </c>
       <c r="Q43" t="n">
-        <v>425.8121009604445</v>
+        <v>400.8339945176588</v>
       </c>
       <c r="R43" t="n">
         <v>425.8121009604445</v>
@@ -7625,49 +7625,49 @@
         <v>1147.455041262441</v>
       </c>
       <c r="C44" t="n">
-        <v>969.5434350430703</v>
+        <v>969.5434350430694</v>
       </c>
       <c r="D44" t="n">
-        <v>802.1170438987942</v>
+        <v>802.1170438987936</v>
       </c>
       <c r="E44" t="n">
-        <v>607.9095386124079</v>
+        <v>607.9095386124072</v>
       </c>
       <c r="F44" t="n">
-        <v>389.2820053207151</v>
+        <v>389.2820053207145</v>
       </c>
       <c r="G44" t="n">
-        <v>185.7610278026281</v>
+        <v>163.5401087144592</v>
       </c>
       <c r="H44" t="n">
         <v>42.33720496745998</v>
       </c>
       <c r="I44" t="n">
-        <v>47.86758482803759</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="J44" t="n">
-        <v>279.6572367756917</v>
+        <v>274.1268569151141</v>
       </c>
       <c r="K44" t="n">
-        <v>466.1482360875763</v>
+        <v>460.6178562269988</v>
       </c>
       <c r="L44" t="n">
-        <v>938.4199689858618</v>
+        <v>743.9455096587367</v>
       </c>
       <c r="M44" t="n">
-        <v>1299.051238256329</v>
+        <v>1074.414409353909</v>
       </c>
       <c r="N44" t="n">
-        <v>1619.350295250897</v>
+        <v>1394.713466348476</v>
       </c>
       <c r="O44" t="n">
-        <v>1875.671260796146</v>
+        <v>1794.965827248734</v>
       </c>
       <c r="P44" t="n">
-        <v>2057.496481525888</v>
+        <v>1976.791047978475</v>
       </c>
       <c r="Q44" t="n">
-        <v>2116.860248372999</v>
+        <v>2036.154814825587</v>
       </c>
       <c r="R44" t="n">
         <v>2116.860248372999</v>
@@ -7676,22 +7676,22 @@
         <v>2113.612104822377</v>
       </c>
       <c r="T44" t="n">
-        <v>2083.464268801306</v>
+        <v>2083.464268801305</v>
       </c>
       <c r="U44" t="n">
-        <v>2022.268568321075</v>
+        <v>2022.268568321074</v>
       </c>
       <c r="V44" t="n">
         <v>1883.197239027384</v>
       </c>
       <c r="W44" t="n">
-        <v>1721.906823392244</v>
+        <v>1721.906823392243</v>
       </c>
       <c r="X44" t="n">
-        <v>1540.079557120119</v>
+        <v>1540.079557120118</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.266964969138</v>
+        <v>1342.266964969137</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>626.5318301026557</v>
+        <v>665.2439456672273</v>
       </c>
       <c r="C45" t="n">
-        <v>453.7787150244729</v>
+        <v>492.4908305890445</v>
       </c>
       <c r="D45" t="n">
-        <v>453.7787150244729</v>
+        <v>344.9025239479884</v>
       </c>
       <c r="E45" t="n">
-        <v>296.1691860273277</v>
+        <v>187.2929949508431</v>
       </c>
       <c r="F45" t="n">
-        <v>151.2133960439446</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="G45" t="n">
-        <v>151.2133960439446</v>
+        <v>42.33720496745998</v>
       </c>
       <c r="H45" t="n">
         <v>42.33720496745998</v>
@@ -7731,10 +7731,10 @@
         <v>259.1593789100972</v>
       </c>
       <c r="L45" t="n">
-        <v>566.776424121083</v>
+        <v>566.7764241210825</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5512005983624</v>
+        <v>978.5512005983619</v>
       </c>
       <c r="N45" t="n">
         <v>1416.623162138339</v>
@@ -7743,34 +7743,34 @@
         <v>1749.745403949709</v>
       </c>
       <c r="P45" t="n">
-        <v>2000.678830500264</v>
+        <v>2000.678830500263</v>
       </c>
       <c r="Q45" t="n">
         <v>2116.860248372999</v>
       </c>
       <c r="R45" t="n">
-        <v>2116.860248372999</v>
+        <v>2038.579794895197</v>
       </c>
       <c r="S45" t="n">
-        <v>2116.860248372999</v>
+        <v>1873.108330431844</v>
       </c>
       <c r="T45" t="n">
-        <v>1917.601571274831</v>
+        <v>1673.849653333676</v>
       </c>
       <c r="U45" t="n">
-        <v>1690.693536519177</v>
+        <v>1446.941618578022</v>
       </c>
       <c r="V45" t="n">
-        <v>1456.442293044778</v>
+        <v>1212.690375103623</v>
       </c>
       <c r="W45" t="n">
-        <v>1203.927801378111</v>
+        <v>960.1758834369558</v>
       </c>
       <c r="X45" t="n">
-        <v>999.3028170005657</v>
+        <v>845.2345229471925</v>
       </c>
       <c r="Y45" t="n">
-        <v>793.5743812242162</v>
+        <v>832.2864967887878</v>
       </c>
     </row>
     <row r="46">
@@ -7807,16 +7807,16 @@
         <v>42.33720496745998</v>
       </c>
       <c r="K46" t="n">
-        <v>79.39794974168049</v>
+        <v>54.4198432988948</v>
       </c>
       <c r="L46" t="n">
-        <v>150.6631820355732</v>
+        <v>125.6850755927875</v>
       </c>
       <c r="M46" t="n">
-        <v>236.3952769889669</v>
+        <v>211.4171705461812</v>
       </c>
       <c r="N46" t="n">
-        <v>325.2301162398636</v>
+        <v>300.2520097970779</v>
       </c>
       <c r="O46" t="n">
         <v>391.9468720680242</v>
@@ -7979,25 +7979,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>221.8814682493969</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>237.1661180762784</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>231.5867393223624</v>
       </c>
       <c r="N2" t="n">
         <v>230.971600487217</v>
       </c>
       <c r="O2" t="n">
-        <v>227.2853754032035</v>
+        <v>231.6396196166854</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>232.7460343419286</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8061,7 +8061,7 @@
         <v>141.6892664805409</v>
       </c>
       <c r="L3" t="n">
-        <v>142.0896822111489</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
         <v>138.5806830739679</v>
@@ -8073,7 +8073,7 @@
         <v>146.3252018138741</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>137.6242091547435</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8143,13 +8143,13 @@
         <v>138.8064228547481</v>
       </c>
       <c r="M4" t="n">
-        <v>142.7465028294557</v>
+        <v>136.3297793760026</v>
       </c>
       <c r="N4" t="n">
         <v>131.7872693341432</v>
       </c>
       <c r="O4" t="n">
-        <v>135.8722650176344</v>
+        <v>142.2889884710875</v>
       </c>
       <c r="P4" t="n">
         <v>140.4068258466027</v>
@@ -8216,13 +8216,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>221.8814682493969</v>
       </c>
       <c r="L5" t="n">
-        <v>237.1661180762784</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>231.8814408771318</v>
+        <v>231.5867393223624</v>
       </c>
       <c r="N5" t="n">
         <v>223.6777370066762</v>
@@ -8231,10 +8231,10 @@
         <v>231.6396196166854</v>
       </c>
       <c r="P5" t="n">
-        <v>228.3917901284467</v>
+        <v>232.7460343419286</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8295,13 +8295,13 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>141.3945649257715</v>
       </c>
       <c r="L6" t="n">
         <v>142.3843837659182</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>145.8745465545087</v>
       </c>
       <c r="N6" t="n">
         <v>128.05816928125</v>
@@ -8310,10 +8310,10 @@
         <v>146.3252018138741</v>
       </c>
       <c r="P6" t="n">
-        <v>137.6242091547435</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>143.7760932144118</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8377,13 +8377,13 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L7" t="n">
-        <v>132.389699401295</v>
+        <v>138.8064228547481</v>
       </c>
       <c r="M7" t="n">
         <v>142.7465028294557</v>
       </c>
       <c r="N7" t="n">
-        <v>131.7872693341432</v>
+        <v>125.37054588069</v>
       </c>
       <c r="O7" t="n">
         <v>142.2889884710875</v>
@@ -8459,19 +8459,19 @@
         <v>244.7270199995685</v>
       </c>
       <c r="M8" t="n">
-        <v>234.7826076001403</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N8" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>239.2005215399755</v>
       </c>
       <c r="P8" t="n">
-        <v>240.3069362652187</v>
+        <v>239.7067437236498</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8529,10 +8529,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>148.649975862262</v>
+        <v>141.1819851082369</v>
       </c>
       <c r="L9" t="n">
         <v>149.9452856892083</v>
@@ -8541,13 +8541,13 @@
         <v>153.4354484777988</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>145.4798126328029</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8617,16 +8617,16 @@
         <v>146.3673247780382</v>
       </c>
       <c r="M10" t="n">
-        <v>150.3074047527458</v>
+        <v>149.7072122111769</v>
       </c>
       <c r="N10" t="n">
         <v>139.3481712574333</v>
       </c>
       <c r="O10" t="n">
-        <v>143.1276759541249</v>
+        <v>149.8498903943776</v>
       </c>
       <c r="P10" t="n">
-        <v>140.4068258466027</v>
+        <v>134.2848039479189</v>
       </c>
       <c r="Q10" t="n">
         <v>67.95667671286152</v>
@@ -8766,13 +8766,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.49773268324522</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>356.8267253479729</v>
+        <v>323.1897812771928</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
@@ -8781,7 +8781,7 @@
         <v>479.7288667944903</v>
       </c>
       <c r="O12" t="n">
-        <v>73.12969910702078</v>
+        <v>73.12969910702074</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.4977326832452</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>89.66849365210705</v>
@@ -9018,7 +9018,7 @@
         <v>479.7288667944903</v>
       </c>
       <c r="O15" t="n">
-        <v>347.0127857285885</v>
+        <v>313.3758416578086</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
@@ -9243,7 +9243,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>129.5406633407219</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,16 +9252,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>198.1125435635253</v>
+        <v>479.7288667944903</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>77.73317175871195</v>
       </c>
       <c r="Q18" t="n">
-        <v>101.1254116970652</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9483,7 +9483,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5257435114552</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
@@ -9492,13 +9492,13 @@
         <v>479.7288667944903</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>73.12969910702074</v>
       </c>
       <c r="P21" t="n">
-        <v>77.73317175871195</v>
+        <v>268.7171015471299</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.1254116970652</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,10 +9714,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.4977326832452</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>89.66849365210705</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9726,16 +9726,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.7288667944902</v>
+        <v>417.1248404752787</v>
       </c>
       <c r="O24" t="n">
-        <v>73.12969910702074</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>155.9962014068781</v>
+        <v>101.1254116970652</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,13 +10662,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540248</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>385.6739591155971</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540253</v>
+        <v>131.1346767540248</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -11379,10 +11379,10 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>385.6739591155971</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332663</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.3503920806401</v>
       </c>
       <c r="C11" t="n">
         <v>244.6190777681877</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.2387148438435</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>291.9710652512039</v>
+        <v>291.971065251204</v>
       </c>
       <c r="H11" t="n">
-        <v>210.4761722178268</v>
+        <v>93.75573195235535</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.9003453275986</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.70224972612597</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.3329452718707</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>65.56661337684866</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.1672036117644</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.3503920806401</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.6190777681877</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>105.9669465540118</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>291.971065251204</v>
       </c>
       <c r="H14" t="n">
-        <v>210.4761722178268</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.9003453275986</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.33294527187074</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>70.21670472445999</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.1672036117644</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.1640990897997</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.3210538404809</v>
       </c>
     </row>
     <row r="15">
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>21.99870989728907</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>18.78304778217212</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.215662115115663</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25877,10 +25877,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>21.99870989728794</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>21.99870989728724</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638708.1402027856</v>
+        <v>638708.1402027855</v>
       </c>
     </row>
     <row r="6">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733829.6767288025</v>
+        <v>733829.6767288023</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733829.6767288025</v>
+        <v>733829.6767288024</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>772651.6827807506</v>
+      </c>
+      <c r="C2" t="n">
         <v>772651.6827807507</v>
       </c>
-      <c r="C2" t="n">
-        <v>772651.6827807506</v>
-      </c>
       <c r="D2" t="n">
-        <v>773223.4381841896</v>
+        <v>773223.4381841897</v>
       </c>
       <c r="E2" t="n">
-        <v>663335.7526481071</v>
+        <v>663335.7526481072</v>
       </c>
       <c r="F2" t="n">
-        <v>663335.7526481071</v>
+        <v>663335.7526481074</v>
       </c>
       <c r="G2" t="n">
-        <v>773223.4381841907</v>
+        <v>773223.4381841904</v>
       </c>
       <c r="H2" t="n">
-        <v>773223.4381841904</v>
+        <v>773223.4381841902</v>
       </c>
       <c r="I2" t="n">
-        <v>773223.4381841907</v>
+        <v>773223.4381841902</v>
       </c>
       <c r="J2" t="n">
         <v>773223.4381841912</v>
       </c>
       <c r="K2" t="n">
-        <v>773223.4381841904</v>
+        <v>773223.4381841915</v>
       </c>
       <c r="L2" t="n">
-        <v>773223.4381841891</v>
+        <v>773223.4381841889</v>
       </c>
       <c r="M2" t="n">
         <v>773223.4381841901</v>
       </c>
       <c r="N2" t="n">
-        <v>773223.4381841904</v>
+        <v>773223.4381841901</v>
       </c>
       <c r="O2" t="n">
         <v>771559.8957417567</v>
       </c>
       <c r="P2" t="n">
-        <v>771559.8957417565</v>
+        <v>771559.8957417569</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81348.05604924765</v>
+        <v>81348.05604924771</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>82912.98128572261</v>
       </c>
       <c r="M3" t="n">
-        <v>94527.73934117207</v>
+        <v>94527.73934117214</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31439.36210637146</v>
+        <v>31439.36210637138</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389439.8635132404</v>
+        <v>389439.8635132403</v>
       </c>
       <c r="C4" t="n">
         <v>389439.8635132404</v>
       </c>
       <c r="D4" t="n">
-        <v>388328.2456449727</v>
+        <v>388328.2456449728</v>
       </c>
       <c r="E4" t="n">
+        <v>233526.6908908954</v>
+      </c>
+      <c r="F4" t="n">
         <v>233526.6908908955</v>
       </c>
-      <c r="F4" t="n">
-        <v>233526.6908908954</v>
-      </c>
       <c r="G4" t="n">
-        <v>299286.8976650586</v>
+        <v>299286.8976650587</v>
       </c>
       <c r="H4" t="n">
         <v>299286.8976650586</v>
@@ -26442,10 +26442,10 @@
         <v>294750.7893671428</v>
       </c>
       <c r="K4" t="n">
-        <v>294750.7893671427</v>
+        <v>294750.7893671428</v>
       </c>
       <c r="L4" t="n">
-        <v>294710.292392301</v>
+        <v>294710.2923923009</v>
       </c>
       <c r="M4" t="n">
         <v>293822.0032250948</v>
@@ -26482,16 +26482,16 @@
         <v>38856.00161905055</v>
       </c>
       <c r="G5" t="n">
-        <v>47404.5637740558</v>
+        <v>47404.56377405581</v>
       </c>
       <c r="H5" t="n">
-        <v>47404.5637740558</v>
+        <v>47404.56377405581</v>
       </c>
       <c r="I5" t="n">
         <v>47404.56377405579</v>
       </c>
       <c r="J5" t="n">
-        <v>58575.12019450745</v>
+        <v>58575.12019450746</v>
       </c>
       <c r="K5" t="n">
         <v>58575.12019450746</v>
@@ -26506,10 +26506,10 @@
         <v>51160.42552758708</v>
       </c>
       <c r="O5" t="n">
-        <v>51028.32484599029</v>
+        <v>51028.32484599028</v>
       </c>
       <c r="P5" t="n">
-        <v>51028.32484599029</v>
+        <v>51028.32484599028</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>346696.4109567042</v>
+        <v>346694.9063372213</v>
       </c>
       <c r="C6" t="n">
-        <v>349140.7523678934</v>
+        <v>349139.2477484107</v>
       </c>
       <c r="D6" t="n">
-        <v>348015.7798382324</v>
+        <v>348015.7798382325</v>
       </c>
       <c r="E6" t="n">
-        <v>67528.1664813192</v>
+        <v>67238.98836148753</v>
       </c>
       <c r="F6" t="n">
-        <v>390953.0601381611</v>
+        <v>390663.8820183296</v>
       </c>
       <c r="G6" t="n">
-        <v>345183.9206958286</v>
+        <v>345183.9206958282</v>
       </c>
       <c r="H6" t="n">
-        <v>426531.976745076</v>
+        <v>426531.9767450758</v>
       </c>
       <c r="I6" t="n">
-        <v>426531.9767450762</v>
+        <v>426531.9767450758</v>
       </c>
       <c r="J6" t="n">
         <v>307738.4946021553</v>
       </c>
       <c r="K6" t="n">
-        <v>419897.5286225402</v>
+        <v>419897.5286225412</v>
       </c>
       <c r="L6" t="n">
-        <v>337320.2950239627</v>
+        <v>337320.2950239625</v>
       </c>
       <c r="M6" t="n">
-        <v>333713.2700903362</v>
+        <v>333713.270090336</v>
       </c>
       <c r="N6" t="n">
-        <v>428241.0094315085</v>
+        <v>428241.0094315083</v>
       </c>
       <c r="O6" t="n">
-        <v>396266.2109511548</v>
+        <v>396261.8332078853</v>
       </c>
       <c r="P6" t="n">
-        <v>427705.573057526</v>
+        <v>427701.1953142569</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>224.0510879723145</v>
       </c>
       <c r="J2" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="K2" t="n">
         <v>142.5556091157588</v>
       </c>
       <c r="L2" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="M2" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="N2" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="O2" t="n">
         <v>190.8526055217652</v>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.7734576656613</v>
+        <v>128.7734576656614</v>
       </c>
       <c r="F3" t="n">
         <v>128.7734576656614</v>
@@ -26808,28 +26808,28 @@
         <v>423.7097283256559</v>
       </c>
       <c r="I4" t="n">
-        <v>423.7097283256558</v>
+        <v>423.7097283256555</v>
       </c>
       <c r="J4" t="n">
-        <v>720.1209097803177</v>
+        <v>720.1209097803178</v>
       </c>
       <c r="K4" t="n">
-        <v>720.1209097803177</v>
+        <v>720.1209097803178</v>
       </c>
       <c r="L4" t="n">
-        <v>712.5600078570276</v>
+        <v>712.5600078570277</v>
       </c>
       <c r="M4" t="n">
         <v>529.2150620932497</v>
       </c>
       <c r="N4" t="n">
-        <v>529.2150620932498</v>
+        <v>529.2150620932497</v>
       </c>
       <c r="O4" t="n">
-        <v>529.2150620932498</v>
+        <v>529.2150620932497</v>
       </c>
       <c r="P4" t="n">
-        <v>529.2150620932498</v>
+        <v>529.2150620932497</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87053905419921</v>
+        <v>40.87053905419914</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>103.6412266071533</v>
       </c>
       <c r="M2" t="n">
-        <v>47.91217628164765</v>
+        <v>47.91217628164776</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.29920263296432</v>
+        <v>39.29920263296422</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>128.7734576656613</v>
+        <v>128.7734576656614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>303.7050449352027</v>
+        <v>303.7050449352031</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>225.510017158047</v>
+        <v>225.5100171580469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87053905419921</v>
+        <v>40.87053905419914</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
-        <v>350.180297800938</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
@@ -27400,7 +27400,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>198.5710882429984</v>
+        <v>200.0997939044413</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27439,7 +27439,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>343.2362535200137</v>
       </c>
       <c r="X2" t="n">
         <v>370.8615991311694</v>
@@ -27464,10 +27464,10 @@
         <v>138.8185600941047</v>
       </c>
       <c r="E3" t="n">
-        <v>149.6089987535134</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>136.2123686030085</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -27476,7 +27476,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>79.20967998493083</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>191.0886684277278</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>217.3633135866604</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -27521,7 +27521,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>198.0371946548179</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -27555,10 +27555,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4646833168628</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>81.5449814472381</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -27582,7 +27582,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>173.3911476697823</v>
+        <v>166.0972841892415</v>
       </c>
       <c r="S4" t="n">
         <v>222.3574069614225</v>
@@ -27591,7 +27591,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>278.7584069105234</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -27622,7 +27622,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>376.6936008016271</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27667,10 +27667,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>215.6712537158795</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>244.1839000960036</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27682,7 +27682,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>380.2626367975755</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>163.7317204468602</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27704,7 +27704,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>137.0817971298889</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.40111628055038</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>162.537178951984</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27752,16 +27752,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>224.6148675591143</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>242.6954832694592</v>
       </c>
       <c r="X6" t="n">
-        <v>197.1677661279374</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>196.3772879380452</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27789,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H7" t="n">
-        <v>155.2096370552565</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
@@ -27819,7 +27819,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>166.0972841892415</v>
       </c>
       <c r="S7" t="n">
         <v>215.0635434808817</v>
@@ -27831,7 +27831,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>245.6424875863983</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -27840,7 +27840,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.7486738677682</v>
+        <v>212.3242389141079</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.9261961042416</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27901,16 +27901,16 @@
         <v>126.9960572970461</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>191.0101863197083</v>
       </c>
       <c r="T8" t="n">
-        <v>208.1103517925894</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>328.5332215225193</v>
+        <v>322.7430076353659</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.5173602065139</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27938,13 +27938,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>142.9493563394796</v>
       </c>
       <c r="F9" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>121.1684448012114</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -27980,16 +27980,16 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>154.1068485018135</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>183.5277665044377</v>
       </c>
       <c r="U9" t="n">
-        <v>209.8024116633703</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>218.8246536719608</v>
+        <v>217.0539656358242</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28017,16 +28017,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>133.8905468055049</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>131.3042560059736</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7793066050859</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
         <v>153.7585467974036</v>
@@ -28056,7 +28056,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>158.5363822659514</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -28065,19 +28065,19 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>272.96819302337</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>271.2378114835846</v>
       </c>
       <c r="X10" t="n">
-        <v>226.1403599323093</v>
+        <v>211.2855945284783</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.8939084639373</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="11">
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>122.3660179107549</v>
       </c>
       <c r="C12" t="n">
-        <v>122.3660179107549</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>122.3660179107549</v>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15.01985690976906</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.3660179107549</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7874291657197</v>
       </c>
       <c r="I12" t="n">
-        <v>76.96701853457128</v>
+        <v>76.96701853457127</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>77.49764894302422</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>122.3660179107549</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0.4412681647338275</v>
+        <v>122.3660179107549</v>
       </c>
       <c r="V12" t="n">
         <v>122.3660179107549</v>
       </c>
       <c r="W12" t="n">
-        <v>122.3660179107549</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>122.3660179107549</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>92.51750585279368</v>
       </c>
       <c r="C15" t="n">
         <v>122.3660179107549</v>
@@ -28415,13 +28415,13 @@
         <v>122.3660179107549</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.3660179107549</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.3660179107549</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7874291657197</v>
       </c>
       <c r="I15" t="n">
         <v>76.96701853457127</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>122.3660179107549</v>
-      </c>
-      <c r="T15" t="n">
-        <v>122.3660179107549</v>
-      </c>
-      <c r="U15" t="n">
-        <v>122.3660179107549</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.441268164733998</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>122.3660179107549</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28518,7 +28518,7 @@
         <v>122.3660179107549</v>
       </c>
       <c r="N16" t="n">
-        <v>122.3660179107549</v>
+        <v>122.3660179107555</v>
       </c>
       <c r="O16" t="n">
         <v>122.3660179107549</v>
@@ -28643,16 +28643,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>156.2217850690706</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>107.7874291657197</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.96701853457127</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.8167498187191</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2660903271862</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,13 +28703,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>107.0962831052684</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28728,10 +28728,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>96.5155531581203</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
         <v>167.657374498252</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.3159077683333</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.9499423974157</v>
@@ -28782,7 +28782,7 @@
         <v>224.0510879723145</v>
       </c>
       <c r="W19" t="n">
-        <v>224.0510879723145</v>
+        <v>87.74890331576401</v>
       </c>
       <c r="X19" t="n">
         <v>224.0510879723145</v>
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7462257866671</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7874291657197</v>
       </c>
       <c r="I21" t="n">
         <v>76.96701853457127</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.8167498187191</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.2660903271862</v>
@@ -28937,10 +28937,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>206.3018977359183</v>
+        <v>224.0510879723145</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>113.6167755239814</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>60.3159077683333</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.9499423974157</v>
@@ -29016,7 +29016,7 @@
         <v>224.0510879723145</v>
       </c>
       <c r="V22" t="n">
-        <v>176.4385620619504</v>
+        <v>87.74890331576404</v>
       </c>
       <c r="W22" t="n">
         <v>224.0510879723145</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>109.3319655748847</v>
+        <v>109.3319655748833</v>
       </c>
       <c r="S23" t="n">
         <v>194.0682676368809</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>119.3519807557537</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.8167498187191</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>224.0510879723145</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>74.51257918226065</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29247,7 +29247,7 @@
         <v>218.3105427262574</v>
       </c>
       <c r="T25" t="n">
-        <v>224.0510879723145</v>
+        <v>27.43299554743069</v>
       </c>
       <c r="U25" t="n">
         <v>224.0510879723145</v>
@@ -29262,7 +29262,7 @@
         <v>224.0510879723145</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.13058144288485</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="C26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="D26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="E26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="F26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="G26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="H26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="I26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="J26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="K26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="L26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="M26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="N26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="O26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="P26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="R26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="S26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="T26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="U26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="V26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="W26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="X26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="Y26" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>54.65964685750313</v>
+        <v>138.9666791296192</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,10 +29363,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>142.5556091157587</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7462257866671</v>
       </c>
       <c r="H27" t="n">
         <v>107.7874291657197</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>142.5556091157587</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>142.5556091157588</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="C28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="D28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="E28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="F28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="G28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="I28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="J28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="K28" t="n">
-        <v>142.5556091157587</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>142.5556091157587</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>18.79745206960736</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="O28" t="n">
-        <v>142.5556091157587</v>
+        <v>79.11335983793967</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.3159077683333</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="R28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="S28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="T28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="U28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="V28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="W28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="X28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.5556091157587</v>
+        <v>142.5556091157588</v>
       </c>
     </row>
     <row r="29">
@@ -29548,7 +29548,7 @@
         <v>142.5556091157588</v>
       </c>
       <c r="O29" t="n">
-        <v>142.5556091157579</v>
+        <v>142.5556091157588</v>
       </c>
       <c r="P29" t="n">
         <v>142.5556091157588</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.89146690746387</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29600,13 +29600,13 @@
         <v>142.5556091157588</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>138.9666791296192</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7462257866671</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7874291657197</v>
       </c>
       <c r="I30" t="n">
         <v>76.96701853457127</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.5556091157588</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.5556091157588</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>142.5556091157588</v>
       </c>
       <c r="J31" t="n">
+        <v>72.42128459555191</v>
+      </c>
+      <c r="K31" t="n">
+        <v>88.93177658981317</v>
+      </c>
+      <c r="L31" t="n">
         <v>142.5556091157588</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>142.5556091157588</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>142.5556091157588</v>
       </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>79.11335983793956</v>
-      </c>
       <c r="Q31" t="n">
-        <v>142.5556091157588</v>
+        <v>60.3159077683333</v>
       </c>
       <c r="R31" t="n">
         <v>142.5556091157588</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="C32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="D32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="E32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="F32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="G32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="H32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="I32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="J32" t="n">
-        <v>144.5117656613525</v>
+        <v>96.96824004464862</v>
       </c>
       <c r="K32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="L32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="M32" t="n">
-        <v>96.96824004464798</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="N32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="O32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="P32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="R32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="S32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="T32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="U32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="V32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="W32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="X32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="Y32" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="F33" t="n">
         <v>50.74733376631555</v>
@@ -29876,13 +29876,13 @@
         <v>77.49764894302422</v>
       </c>
       <c r="S33" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.5117656613525</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="C34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="E34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="F34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="G34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="H34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="I34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="J34" t="n">
         <v>72.42128459555191</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>144.5117656613525</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="N34" t="n">
-        <v>51.12931579957905</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="P34" t="n">
-        <v>144.5117656613525</v>
+        <v>111.445223567914</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.3159077683333</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="R34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="S34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="T34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="U34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="V34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="W34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="X34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
       <c r="Y34" t="n">
-        <v>144.5117656613525</v>
+        <v>144.5117656613524</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="C35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="D35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="E35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="F35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="G35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="H35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="I35" t="n">
         <v>185.2663632383535</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>142.2425749908722</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>192.4239419430001</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>192.4239419430001</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.91060941598744</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>109.3319655748847</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="S35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="T35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="U35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="V35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="W35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="X35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
     </row>
     <row r="36">
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>19.92068156312801</v>
       </c>
       <c r="H36" t="n">
         <v>107.7874291657197</v>
@@ -30125,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>175.9541152703017</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>181.344277071304</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -30162,7 +30162,7 @@
         <v>159.569474605687</v>
       </c>
       <c r="I37" t="n">
-        <v>146.7752255194035</v>
+        <v>160.782949659505</v>
       </c>
       <c r="J37" t="n">
         <v>72.42128459555191</v>
@@ -30192,25 +30192,25 @@
         <v>162.9499423974157</v>
       </c>
       <c r="S37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="T37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="U37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="V37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="W37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="X37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
     </row>
     <row r="38">
@@ -30220,43 +30220,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="C38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="D38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="E38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="F38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="G38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="H38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="I38" t="n">
-        <v>192.4239419430001</v>
+        <v>185.2663632383535</v>
       </c>
       <c r="J38" t="n">
-        <v>192.4239419430001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="N38" t="n">
-        <v>192.4239419430001</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>135.0849962862258</v>
+        <v>142.2425749908719</v>
       </c>
       <c r="S38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="T38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="U38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="V38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="W38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="X38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
     </row>
     <row r="39">
@@ -30311,10 +30311,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7462257866671</v>
       </c>
       <c r="H39" t="n">
         <v>107.7874291657197</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>138.0160561618289</v>
       </c>
       <c r="T39" t="n">
-        <v>147.3469231460203</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>192.4239419430001</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>159.569474605687</v>
       </c>
       <c r="I40" t="n">
-        <v>146.7752255194035</v>
+        <v>160.782949659505</v>
       </c>
       <c r="J40" t="n">
         <v>72.42128459555191</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>14.00772414010174</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>162.9499423974157</v>
       </c>
       <c r="S40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="T40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="U40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="V40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="W40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="X40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.4239419430001</v>
+        <v>192.4239419430002</v>
       </c>
     </row>
     <row r="41">
@@ -30490,19 +30490,19 @@
         <v>190.8526055217652</v>
       </c>
       <c r="M41" t="n">
-        <v>36.05328225845739</v>
+        <v>190.8526055217652</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>190.8526055217652</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>36.05328225845702</v>
       </c>
       <c r="R41" t="n">
         <v>109.3319655748847</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.8167498187191</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>19.9206815631274</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>105.7839648470546</v>
       </c>
     </row>
     <row r="43">
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.23041054826835</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>60.3159077683333</v>
       </c>
       <c r="R43" t="n">
-        <v>162.9499423974157</v>
+        <v>188.1803529456841</v>
       </c>
       <c r="S43" t="n">
         <v>190.8526055217652</v>
@@ -30715,7 +30715,7 @@
         <v>190.8526055217652</v>
       </c>
       <c r="I44" t="n">
-        <v>190.8526055217652</v>
+        <v>185.2663632383535</v>
       </c>
       <c r="J44" t="n">
         <v>190.8526055217652</v>
@@ -30724,25 +30724,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>145.3852478333418</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>190.8526055217652</v>
-      </c>
-      <c r="M44" t="n">
-        <v>30.46703997504579</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>109.3319655748847</v>
       </c>
       <c r="S44" t="n">
         <v>190.8526055217652</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30791,7 +30791,7 @@
         <v>135.7462257866671</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7874291657197</v>
       </c>
       <c r="I45" t="n">
         <v>76.96701853457127</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.49764894302422</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.8167498187191</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>1.88289507470833</v>
+        <v>90.66968272361264</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.8526055217652</v>
       </c>
     </row>
     <row r="46">
@@ -30879,19 +30879,19 @@
         <v>72.42128459555191</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>25.23041054826837</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5176822418720047</v>
+        <v>0.5176822418720051</v>
       </c>
       <c r="H11" t="n">
-        <v>5.30171325957167</v>
+        <v>5.301713259571674</v>
       </c>
       <c r="I11" t="n">
-        <v>19.95794462977048</v>
+        <v>19.95794462977049</v>
       </c>
       <c r="J11" t="n">
-        <v>43.93763317608411</v>
+        <v>43.93763317608413</v>
       </c>
       <c r="K11" t="n">
-        <v>65.85112247452608</v>
+        <v>65.85112247452612</v>
       </c>
       <c r="L11" t="n">
-        <v>81.69414038421647</v>
+        <v>81.69414038421651</v>
       </c>
       <c r="M11" t="n">
-        <v>90.90047195310773</v>
+        <v>90.90047195310778</v>
       </c>
       <c r="N11" t="n">
-        <v>92.37133662282656</v>
+        <v>92.37133662282663</v>
       </c>
       <c r="O11" t="n">
-        <v>87.22363383021181</v>
+        <v>87.22363383021187</v>
       </c>
       <c r="P11" t="n">
-        <v>74.44335348399669</v>
+        <v>74.44335348399673</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.9038581969555</v>
+        <v>55.90385819695553</v>
       </c>
       <c r="R11" t="n">
-        <v>32.51885712599235</v>
+        <v>32.51885712599237</v>
       </c>
       <c r="S11" t="n">
-        <v>11.79668408665832</v>
+        <v>11.79668408665833</v>
       </c>
       <c r="T11" t="n">
-        <v>2.266154013794702</v>
+        <v>2.266154013794703</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04141457934976037</v>
+        <v>0.0414145793497604</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.276984418375196</v>
+        <v>0.2769844183751962</v>
       </c>
       <c r="H12" t="n">
-        <v>2.675086356413077</v>
+        <v>2.675086356413079</v>
       </c>
       <c r="I12" t="n">
-        <v>9.53652493090039</v>
+        <v>9.536524930900395</v>
       </c>
       <c r="J12" t="n">
-        <v>26.16895331675481</v>
+        <v>26.16895331675483</v>
       </c>
       <c r="K12" t="n">
-        <v>44.72690934789294</v>
+        <v>44.72690934789297</v>
       </c>
       <c r="L12" t="n">
-        <v>60.14084926168455</v>
+        <v>60.14084926168459</v>
       </c>
       <c r="M12" t="n">
-        <v>70.18153442778539</v>
+        <v>70.18153442778544</v>
       </c>
       <c r="N12" t="n">
-        <v>72.03903081241556</v>
+        <v>72.0390308124156</v>
       </c>
       <c r="O12" t="n">
-        <v>65.90163922631253</v>
+        <v>65.90163922631257</v>
       </c>
       <c r="P12" t="n">
-        <v>52.89187547026002</v>
+        <v>52.89187547026005</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.35681803680572</v>
+        <v>35.35681803680574</v>
       </c>
       <c r="R12" t="n">
-        <v>17.197330818067</v>
+        <v>17.19733081806701</v>
       </c>
       <c r="S12" t="n">
-        <v>5.144864086925238</v>
+        <v>5.144864086925241</v>
       </c>
       <c r="T12" t="n">
-        <v>1.116441581082478</v>
+        <v>1.116441581082479</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01822265910363132</v>
+        <v>0.01822265910363133</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2322144318561105</v>
+        <v>0.2322144318561106</v>
       </c>
       <c r="H13" t="n">
-        <v>2.064597403229784</v>
+        <v>2.064597403229785</v>
       </c>
       <c r="I13" t="n">
-        <v>6.983321278000124</v>
+        <v>6.98332127800013</v>
       </c>
       <c r="J13" t="n">
-        <v>16.41756033222701</v>
+        <v>16.41756033222702</v>
       </c>
       <c r="K13" t="n">
-        <v>26.97909490110083</v>
+        <v>26.97909490110085</v>
       </c>
       <c r="L13" t="n">
-        <v>34.52395289613483</v>
+        <v>34.52395289613486</v>
       </c>
       <c r="M13" t="n">
-        <v>36.40066771359012</v>
+        <v>36.40066771359014</v>
       </c>
       <c r="N13" t="n">
-        <v>35.53514119485373</v>
+        <v>35.53514119485376</v>
       </c>
       <c r="O13" t="n">
-        <v>32.82245442271643</v>
+        <v>32.82245442271645</v>
       </c>
       <c r="P13" t="n">
-        <v>28.08528001285175</v>
+        <v>28.08528001285177</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.44479210751485</v>
+        <v>19.44479210751487</v>
       </c>
       <c r="R13" t="n">
-        <v>10.44120527236656</v>
+        <v>10.44120527236657</v>
       </c>
       <c r="S13" t="n">
-        <v>4.046864235165124</v>
+        <v>4.046864235165127</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9921889361124718</v>
+        <v>0.9921889361124725</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01266624173760604</v>
+        <v>0.01266624173760605</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="N2" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="O2" t="n">
-        <v>2.939619267058895</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="L3" t="n">
-        <v>6.999161925771512</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="M4" t="n">
-        <v>7.293863480540836</v>
+        <v>0.877140027087671</v>
       </c>
       <c r="N4" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8771400270876728</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="P4" t="n">
         <v>6.12202189868384</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="L5" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="P5" t="n">
-        <v>2.939619267058895</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="L6" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="P6" t="n">
-        <v>6.999161925771512</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,13 +35097,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8771400270876715</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="M7" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="N7" t="n">
-        <v>7.293863480540836</v>
+        <v>0.877140027087671</v>
       </c>
       <c r="O7" t="n">
         <v>7.293863480540836</v>
@@ -35179,19 +35179,19 @@
         <v>14.85476540383092</v>
       </c>
       <c r="M8" t="n">
-        <v>10.19503020354938</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="P8" t="n">
-        <v>14.85476540383092</v>
+        <v>14.254572862262</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>14.254572862262</v>
+        <v>6.786582108236849</v>
       </c>
       <c r="L9" t="n">
         <v>14.85476540383092</v>
@@ -35261,13 +35261,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,16 +35337,16 @@
         <v>14.85476540383092</v>
       </c>
       <c r="M10" t="n">
-        <v>14.85476540383092</v>
+        <v>14.254572862262</v>
       </c>
       <c r="N10" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="O10" t="n">
-        <v>8.132550963578161</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="P10" t="n">
-        <v>6.12202189868384</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.27835604152169</v>
+        <v>43.27835604152172</v>
       </c>
       <c r="K11" t="n">
-        <v>188.3747467796814</v>
+        <v>188.3747467796815</v>
       </c>
       <c r="L11" t="n">
         <v>286.1895489209473</v>
@@ -35419,16 +35419,16 @@
         <v>333.8069693890627</v>
       </c>
       <c r="N11" t="n">
-        <v>323.5344010046139</v>
+        <v>323.534401004614</v>
       </c>
       <c r="O11" t="n">
-        <v>258.9100662073224</v>
+        <v>258.9100662073225</v>
       </c>
       <c r="P11" t="n">
-        <v>183.6618391209512</v>
+        <v>183.6618391209509</v>
       </c>
       <c r="Q11" t="n">
-        <v>59.96340085566811</v>
+        <v>59.96340085566815</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.63694407077998</v>
       </c>
       <c r="K12" t="n">
-        <v>185.3753528409747</v>
+        <v>185.3753528409748</v>
       </c>
       <c r="L12" t="n">
-        <v>281.8770543242801</v>
+        <v>248.2401102535</v>
       </c>
       <c r="M12" t="n">
         <v>415.9341176538175</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.4681076268226</v>
+        <v>253.4681076268227</v>
       </c>
       <c r="Q12" t="n">
         <v>117.3549675482178</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.94473331520302</v>
+        <v>49.944733315203</v>
       </c>
       <c r="K13" t="n">
         <v>134.5707030940224</v>
       </c>
       <c r="L13" t="n">
-        <v>194.3511010358991</v>
+        <v>194.351101035899</v>
       </c>
       <c r="M13" t="n">
         <v>208.9640936212536</v>
       </c>
       <c r="N13" t="n">
-        <v>212.0981787702466</v>
+        <v>212.0981787702465</v>
       </c>
       <c r="O13" t="n">
         <v>189.7566803634424</v>
@@ -35586,7 +35586,7 @@
         <v>156.5733198222905</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.05011014242163</v>
+        <v>62.0501101424216</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.63694407077998</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>423.7097283256559</v>
       </c>
       <c r="O15" t="n">
-        <v>273.8830866215678</v>
+        <v>240.2461425507879</v>
       </c>
       <c r="P15" t="n">
         <v>253.4681076268227</v>
@@ -35814,7 +35814,7 @@
         <v>208.9640936212536</v>
       </c>
       <c r="N16" t="n">
-        <v>212.0981787702465</v>
+        <v>212.0981787702472</v>
       </c>
       <c r="O16" t="n">
         <v>189.7566803634424</v>
@@ -35963,7 +35963,7 @@
         <v>33.63694407077998</v>
       </c>
       <c r="K18" t="n">
-        <v>185.3753528409748</v>
+        <v>39.87216968861487</v>
       </c>
       <c r="L18" t="n">
         <v>310.7242880919048</v>
@@ -35972,16 +35972,16 @@
         <v>415.9341176538175</v>
       </c>
       <c r="N18" t="n">
-        <v>142.093405094691</v>
+        <v>423.7097283256559</v>
       </c>
       <c r="O18" t="n">
         <v>336.4871129407779</v>
       </c>
       <c r="P18" t="n">
-        <v>253.4681076268227</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.3549675482178</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>188.3747467796815</v>
       </c>
       <c r="L20" t="n">
-        <v>286.1895489209473</v>
+        <v>286.1895489209474</v>
       </c>
       <c r="M20" t="n">
         <v>333.8069693890627</v>
@@ -36203,7 +36203,7 @@
         <v>185.3753528409748</v>
       </c>
       <c r="L21" t="n">
-        <v>282.5760724877625</v>
+        <v>310.7242880919048</v>
       </c>
       <c r="M21" t="n">
         <v>415.9341176538175</v>
@@ -36212,13 +36212,13 @@
         <v>423.7097283256559</v>
       </c>
       <c r="O21" t="n">
-        <v>336.4871129407779</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>190.983929788418</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.3549675482178</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>286.1895489209473</v>
       </c>
       <c r="M23" t="n">
-        <v>333.8069693890622</v>
+        <v>333.8069693890627</v>
       </c>
       <c r="N23" t="n">
         <v>323.534401004614</v>
@@ -36379,7 +36379,7 @@
         <v>59.96340085566815</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.63694407077998</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>185.3753528409748</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>310.7242880919048</v>
@@ -36446,16 +36446,16 @@
         <v>415.9341176538175</v>
       </c>
       <c r="N24" t="n">
-        <v>423.7097283256558</v>
+        <v>361.1057020064443</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>336.4871129407779</v>
       </c>
       <c r="P24" t="n">
         <v>253.4681076268227</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.87078970981284</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>185.8339651572804</v>
+        <v>185.8339651572805</v>
       </c>
       <c r="K26" t="n">
         <v>330.9303558954402</v>
@@ -36601,13 +36601,13 @@
         <v>428.7451580367061</v>
       </c>
       <c r="M26" t="n">
-        <v>476.3625785048214</v>
+        <v>476.3625785048215</v>
       </c>
       <c r="N26" t="n">
         <v>466.0900101203727</v>
       </c>
       <c r="O26" t="n">
-        <v>401.4656753230812</v>
+        <v>401.4656753230813</v>
       </c>
       <c r="P26" t="n">
         <v>326.2174482367096</v>
@@ -36616,7 +36616,7 @@
         <v>202.5190099714269</v>
       </c>
       <c r="R26" t="n">
-        <v>33.22364354087402</v>
+        <v>33.22364354087408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.13432452020682</v>
+        <v>70.13432452020687</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7602942990262</v>
+        <v>12.2046851832675</v>
       </c>
       <c r="L28" t="n">
-        <v>214.5406922409029</v>
+        <v>71.98508312514414</v>
       </c>
       <c r="M28" t="n">
         <v>86.5980757104987</v>
       </c>
       <c r="N28" t="n">
-        <v>108.529612929099</v>
+        <v>232.2877699752504</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9462715684462</v>
+        <v>146.5040222906272</v>
       </c>
       <c r="P28" t="n">
-        <v>34.20730191153561</v>
+        <v>176.7629110272944</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.23970134742548</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,10 +36841,10 @@
         <v>476.3625785048215</v>
       </c>
       <c r="N29" t="n">
-        <v>466.0900101203727</v>
+        <v>466.0900101203728</v>
       </c>
       <c r="O29" t="n">
-        <v>401.4656753230803</v>
+        <v>401.4656753230812</v>
       </c>
       <c r="P29" t="n">
         <v>326.2174482367096</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.13432452020687</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7602942990263</v>
+        <v>101.1364617730807</v>
       </c>
       <c r="L31" t="n">
-        <v>71.98508312514414</v>
+        <v>214.5406922409029</v>
       </c>
       <c r="M31" t="n">
-        <v>229.1536848262575</v>
+        <v>86.5980757104987</v>
       </c>
       <c r="N31" t="n">
         <v>89.73216085949164</v>
       </c>
       <c r="O31" t="n">
-        <v>67.39066245268751</v>
+        <v>209.9462715684463</v>
       </c>
       <c r="P31" t="n">
-        <v>113.3206617494752</v>
+        <v>176.7629110272944</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.23970134742548</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>187.7901217028742</v>
+        <v>140.2465960861703</v>
       </c>
       <c r="K32" t="n">
         <v>332.8865124410339</v>
       </c>
       <c r="L32" t="n">
-        <v>430.7013145822999</v>
+        <v>430.7013145822997</v>
       </c>
       <c r="M32" t="n">
-        <v>430.7752094337107</v>
+        <v>478.3187350504151</v>
       </c>
       <c r="N32" t="n">
         <v>468.0461666659664</v>
       </c>
       <c r="O32" t="n">
-        <v>403.421831868675</v>
+        <v>403.4218318686749</v>
       </c>
       <c r="P32" t="n">
-        <v>328.1736047823034</v>
+        <v>328.1736047823033</v>
       </c>
       <c r="Q32" t="n">
-        <v>204.4751665170206</v>
+        <v>204.4751665170205</v>
       </c>
       <c r="R32" t="n">
-        <v>35.17980008646778</v>
+        <v>35.17980008646769</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>12.2046851832675</v>
       </c>
       <c r="L34" t="n">
-        <v>216.4968487864966</v>
+        <v>71.98508312514414</v>
       </c>
       <c r="M34" t="n">
-        <v>231.1098413718512</v>
+        <v>231.1098413718511</v>
       </c>
       <c r="N34" t="n">
-        <v>140.8614766590707</v>
+        <v>89.73216085949164</v>
       </c>
       <c r="O34" t="n">
-        <v>67.39066245268751</v>
+        <v>211.9024281140399</v>
       </c>
       <c r="P34" t="n">
-        <v>178.7190675728881</v>
+        <v>145.6525254794496</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.1958578930191</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.27835604152172</v>
+        <v>185.5209310323939</v>
       </c>
       <c r="K35" t="n">
         <v>188.3747467796815</v>
       </c>
       <c r="L35" t="n">
-        <v>478.6134908639474</v>
+        <v>286.1895489209473</v>
       </c>
       <c r="M35" t="n">
         <v>333.8069693890627</v>
       </c>
       <c r="N35" t="n">
-        <v>515.9583429476141</v>
+        <v>323.534401004614</v>
       </c>
       <c r="O35" t="n">
-        <v>258.9100662073225</v>
+        <v>451.3340081503226</v>
       </c>
       <c r="P35" t="n">
         <v>183.6618391209509</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.87401027165559</v>
+        <v>59.96340085566815</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.09197636811545</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.63694407077961</v>
+        <v>33.63694407077998</v>
       </c>
       <c r="K36" t="n">
         <v>185.3753528409748</v>
       </c>
       <c r="L36" t="n">
-        <v>310.7242880919048</v>
+        <v>310.7242880919044</v>
       </c>
       <c r="M36" t="n">
         <v>415.9341176538175</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>14.00772414010169</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.00772414010146</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.15757870464661</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>235.7022979845219</v>
+        <v>43.27835604152172</v>
       </c>
       <c r="K38" t="n">
         <v>188.3747467796815</v>
       </c>
       <c r="L38" t="n">
-        <v>286.1895489209473</v>
+        <v>478.6134908639475</v>
       </c>
       <c r="M38" t="n">
-        <v>333.8069693890627</v>
+        <v>526.2309113320629</v>
       </c>
       <c r="N38" t="n">
-        <v>515.9583429476141</v>
+        <v>323.534401004614</v>
       </c>
       <c r="O38" t="n">
         <v>258.9100662073225</v>
@@ -37564,7 +37564,7 @@
         <v>59.96340085566815</v>
       </c>
       <c r="R38" t="n">
-        <v>25.75303071134105</v>
+        <v>32.91060941598718</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.63694407078006</v>
+        <v>33.63694407077961</v>
       </c>
       <c r="K39" t="n">
         <v>185.3753528409748</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>14.00772414010146</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>12.2046851832675</v>
       </c>
       <c r="L40" t="n">
-        <v>85.99280726524589</v>
+        <v>71.98508312514414</v>
       </c>
       <c r="M40" t="n">
         <v>86.5980757104987</v>
@@ -37786,19 +37786,19 @@
         <v>477.0421544427126</v>
       </c>
       <c r="M41" t="n">
-        <v>369.8602516475201</v>
+        <v>524.6595749108279</v>
       </c>
       <c r="N41" t="n">
         <v>323.534401004614</v>
       </c>
       <c r="O41" t="n">
-        <v>449.7626717290877</v>
+        <v>258.9100662073225</v>
       </c>
       <c r="P41" t="n">
         <v>183.6618391209509</v>
       </c>
       <c r="Q41" t="n">
-        <v>59.96340085566815</v>
+        <v>96.01668311412517</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>71.98508312514414</v>
       </c>
       <c r="M43" t="n">
-        <v>111.8284862587671</v>
+        <v>86.5980757104987</v>
       </c>
       <c r="N43" t="n">
         <v>89.73216085949164</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.23041054826838</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.586242283411721</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>234.130961563287</v>
@@ -38020,16 +38020,16 @@
         <v>188.3747467796815</v>
       </c>
       <c r="L44" t="n">
-        <v>477.0421544427126</v>
+        <v>286.1895489209473</v>
       </c>
       <c r="M44" t="n">
-        <v>364.2740093641085</v>
+        <v>333.8069693890627</v>
       </c>
       <c r="N44" t="n">
         <v>323.534401004614</v>
       </c>
       <c r="O44" t="n">
-        <v>258.9100662073225</v>
+        <v>404.2953140406643</v>
       </c>
       <c r="P44" t="n">
         <v>183.6618391209509</v>
@@ -38038,7 +38038,7 @@
         <v>59.96340085566815</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.52063994688054</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>185.3753528409748</v>
       </c>
       <c r="L45" t="n">
-        <v>310.7242880919048</v>
+        <v>310.7242880919044</v>
       </c>
       <c r="M45" t="n">
-        <v>415.9341176538176</v>
+        <v>415.9341176538175</v>
       </c>
       <c r="N45" t="n">
         <v>442.4969308484613</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>37.43509573153587</v>
+        <v>12.2046851832675</v>
       </c>
       <c r="L46" t="n">
         <v>71.98508312514414</v>
@@ -38187,7 +38187,7 @@
         <v>89.73216085949164</v>
       </c>
       <c r="O46" t="n">
-        <v>67.39066245268751</v>
+        <v>92.62107300095587</v>
       </c>
       <c r="P46" t="n">
         <v>34.20730191153561</v>
